--- a/raw_data/umd/2023/RL_2023-07-12_BBay.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-12_BBay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_12_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D8E8CD9-A2C8-C440-8250-88171ABBCDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23078FFC-A9D8-6C43-AD9A-25B039F2E11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{09454013-1381-FE46-801E-08CD8BC6EBC3}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = BBay</t>
-  </si>
-  <si>
-    <t>Location ID = a6a0d220-1bc5-4f21-a916-6af978babc90</t>
-  </si>
-  <si>
-    <t>Latitude = 46.851383 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.17583 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-12 13:26:32</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:11</t>
-  </si>
-  <si>
-    <t>Readings = 72</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1014,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91726632-74C7-124F-B12B-FA28C18A12AB}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1040,4044 +997,3949 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45119.56009259259</v>
+      </c>
+      <c r="B2" s="3">
+        <v>24.140319999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.9668089999999996</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.2768489999999996E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99850879999999997</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4.0799919999999997E-5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1588301</v>
+      </c>
+      <c r="J2" s="3">
+        <v>18.480550000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.1577141</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.98984839999999996</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.110884</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.0259819999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>991.46469999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.84856577</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.179019980000007</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45119.560104166667</v>
+      </c>
+      <c r="B3" s="3">
+        <v>23.768460000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.9696280000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.2769140000000001E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99850890000000003</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.080025E-5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.15145800000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>18.480419999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.1564547</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.98694009999999999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.1099986</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.0262309999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>991.46609999999998</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.84856577</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.179019980000007</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45119.560115740744</v>
+      </c>
+      <c r="B4" s="3">
+        <v>23.396599999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.9724459999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.2769800000000001E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99850890000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.0800580000000002E-5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.14408589999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>18.48029</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.15519530000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.98403160000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.10911319999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.026481</v>
+      </c>
+      <c r="O4" s="3">
+        <v>991.46730000000002</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.84856577</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.179019980000007</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45119.560127314813</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26.932739999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.0479859999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.2773179999999998E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99850930000000004</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.0802700000000002E-5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.25052200000000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>18.471769999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.1352517</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.93752840000000004</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.16263839999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.0190239999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <v>991.45129999999995</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.84856577</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.179019980000007</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45119.56013888889</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27.003889999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.054195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.2773670000000004E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99850939999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.0802939999999998E-5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.25240279999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>18.471209999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.13388330000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.93433829999999995</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.16545029999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.0187820000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>991.45119999999997</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.848561099999998</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.179033410000002</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45119.560150462959</v>
+      </c>
+      <c r="B7" s="3">
+        <v>27.075040000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.0604050000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.2774170000000004E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99850950000000005</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.0803190000000002E-5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.2542835</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18.470659999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.13251489999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.93114810000000003</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.1682621</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.0185390000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>991.45100000000002</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.848561099999998</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.179033410000002</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45119.560162037036</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26.74578</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.0060450000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.2786480000000006E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99851120000000004</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4.0811210000000001E-5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.15431629999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18.471270000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.34829650000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.4254549999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.25397029999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.01831</v>
+      </c>
+      <c r="O8" s="3">
+        <v>991.44190000000003</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.848562289999997</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.179051419999993</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45119.560173611113</v>
+      </c>
+      <c r="B9" s="3">
+        <v>26.807970000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.0047490000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6.2787229999999999E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99851129999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.0811700000000001E-5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1512434</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18.471109999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.35974810000000002</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.45167</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.25991649999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.018127</v>
+      </c>
+      <c r="O9" s="3">
+        <v>991.44100000000003</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.848562289999997</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.179051419999993</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45119.560185185182</v>
+      </c>
+      <c r="B10" s="3">
+        <v>26.870159999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.0034530000000004</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.2787990000000002E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99851140000000005</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.0812190000000001E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.14817060000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18.470949999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.37119970000000002</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.477884</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.2658626</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.017943</v>
+      </c>
+      <c r="O10" s="3">
+        <v>991.44010000000003</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.848562289999997</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.179051419999993</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45119.560196759259</v>
+      </c>
+      <c r="B11" s="3">
+        <v>53.755600000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.6739649999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.2786999999999996E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99851129999999999</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4.0811540000000003E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.25138850000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18.461179999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.1527289999999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.276967</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.81313500000000005</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.00257</v>
+      </c>
+      <c r="O11" s="3">
+        <v>991.43140000000005</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.848562289999997</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.179051419999993</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45119.560208333336</v>
+      </c>
+      <c r="B12" s="3">
+        <v>55.247549999999997</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.7101899999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.2787209999999996E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99851129999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.081169E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.25488490000000003</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18.460650000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.2011480000000001</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3.3883730000000001</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.84558149999999999</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.001709</v>
+      </c>
+      <c r="O12" s="3">
+        <v>991.4307</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.84856293</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.179068200000003</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45119.560219907406</v>
+      </c>
+      <c r="B13" s="3">
+        <v>56.739510000000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.7464139999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.278744E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99851129999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.0811830000000003E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.25838129999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.46012</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.2495670000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3.4997790000000002</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.87802789999999997</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.000848</v>
+      </c>
+      <c r="O13" s="3">
+        <v>991.43010000000004</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.84856293</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.179068200000003</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45119.560231481482</v>
+      </c>
+      <c r="B14" s="3">
+        <v>303.17970000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.7042000000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.2796699999999997E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.9985136</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.0822940000000001E-5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.33473609999999998</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18.454029999999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.666342</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5.9637929999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.6303909999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.0005809999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>991.38729999999998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.84856293</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.179068200000003</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45119.560243055559</v>
+      </c>
+      <c r="B15" s="3">
+        <v>317.32920000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5.7173040000000004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.2797179999999994E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99851380000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.0823530000000002E-5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.34133530000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.453469999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.707136</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6.1403150000000002</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.684266</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.000211</v>
+      </c>
+      <c r="O15" s="3">
+        <v>991.38469999999995</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.84856293</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.179068200000003</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45119.560254629629</v>
+      </c>
+      <c r="B16" s="3">
+        <v>331.47859999999997</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.7304079999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.279767E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99851389999999995</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4.0824120000000002E-5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.34793459999999998</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.452909999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.7479309999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6.3168360000000003</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.73814</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.99984240000000002</v>
+      </c>
+      <c r="O16" s="3">
+        <v>991.38210000000004</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45119.560266203705</v>
+      </c>
+      <c r="B17" s="3">
+        <v>237.1354</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.5774439999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.2801940000000001E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.9985134</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4.0821900000000003E-5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.27819120000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18.447140000000001</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.6802009999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6.9805210000000004</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.941646</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.99224979999999996</v>
+      </c>
+      <c r="O17" s="3">
+        <v>991.44159999999999</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45119.560277777775</v>
+      </c>
+      <c r="B18" s="3">
+        <v>237.4051</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.5681289999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.280239E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.9985134</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4.0822019999999998E-5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.27602789999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18.446680000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.7413880000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7.072711</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.969832</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.99181989999999998</v>
+      </c>
+      <c r="O18" s="3">
+        <v>991.44389999999999</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45119.560289351852</v>
+      </c>
+      <c r="B19" s="3">
+        <v>237.6747</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.5588139999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6.2802839999999999E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99851350000000005</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.082215E-5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.27386450000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.44623</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.802575</v>
+      </c>
+      <c r="L19" s="3">
+        <v>7.1649010000000004</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.9980180000000001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.99138999999999999</v>
+      </c>
+      <c r="O19" s="3">
+        <v>991.44629999999995</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45119.560300925928</v>
+      </c>
+      <c r="B20" s="3">
+        <v>301.79520000000002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.6490619999999998</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.2808420000000004E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99851420000000002</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4.0825660000000002E-5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.26878059999999998</v>
+      </c>
+      <c r="J20" s="3">
+        <v>18.444870000000002</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.106376</v>
+      </c>
+      <c r="L20" s="3">
+        <v>7.828144</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.2006130000000002</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.97584689999999996</v>
+      </c>
+      <c r="O20" s="3">
+        <v>991.39610000000005</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45119.560312499998</v>
+      </c>
+      <c r="B21" s="3">
+        <v>303.12419999999997</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.6506129999999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6.2808820000000001E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99851429999999997</v>
+      </c>
+      <c r="H21" s="5">
+        <v>4.0825789999999997E-5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.26692630000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18.444669999999999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3.1445270000000001</v>
+      </c>
+      <c r="L21" s="3">
+        <v>7.8799380000000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2.216453</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.97482290000000005</v>
+      </c>
+      <c r="O21" s="3">
+        <v>991.39469999999994</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45119.560324074075</v>
+      </c>
+      <c r="B22" s="3">
+        <v>304.45319999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.652164</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6.2809219999999999E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99851429999999997</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4.082593E-5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.26507199999999997</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18.444459999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3.1826789999999998</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7.9317330000000004</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2.2322920000000002</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.97379890000000002</v>
+      </c>
+      <c r="O22" s="3">
+        <v>991.39329999999995</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.848549679999998</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.179059100000003</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45119.56009259259</v>
+        <v>45119.560335648152</v>
       </c>
       <c r="B23" s="3">
-        <v>24.140319999999999</v>
+        <v>66.874009999999998</v>
       </c>
       <c r="C23" s="3">
-        <v>4.9668089999999996</v>
+        <v>5.7188999999999997</v>
       </c>
       <c r="D23" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E23" s="3">
-        <v>6.2768489999999996E-2</v>
+        <v>6.2823299999999999E-2</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99850879999999997</v>
+        <v>0.99851590000000001</v>
       </c>
       <c r="H23" s="5">
-        <v>4.0799919999999997E-5</v>
+        <v>4.0833500000000001E-5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.1588301</v>
+        <v>0.32253969999999998</v>
       </c>
       <c r="J23" s="3">
-        <v>18.480550000000001</v>
+        <v>18.434280000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>0.1577141</v>
+        <v>3.9686720000000002</v>
       </c>
       <c r="L23" s="3">
-        <v>0.98984839999999996</v>
+        <v>9.7628339999999998</v>
       </c>
       <c r="M23" s="3">
-        <v>0.110884</v>
+        <v>2.790254</v>
       </c>
       <c r="N23" s="3">
-        <v>1.0259819999999999</v>
+        <v>0.97357530000000003</v>
       </c>
       <c r="O23" s="3">
-        <v>991.46469999999999</v>
+        <v>991.40020000000004</v>
       </c>
       <c r="P23" s="3">
-        <v>46.84856577</v>
+        <v>46.848540360000001</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.179019980000007</v>
+        <v>-91.179055890000001</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45119.560104166667</v>
+        <v>45119.560347222221</v>
       </c>
       <c r="B24" s="3">
-        <v>23.768460000000001</v>
+        <v>55.299639999999997</v>
       </c>
       <c r="C24" s="3">
-        <v>4.9696280000000002</v>
+        <v>5.7245039999999996</v>
       </c>
       <c r="D24" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>6.2769140000000001E-2</v>
+        <v>6.2824199999999997E-2</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99850890000000003</v>
+        <v>0.99851599999999996</v>
       </c>
       <c r="H24" s="5">
-        <v>4.080025E-5</v>
+        <v>4.0833990000000002E-5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.15145800000000001</v>
+        <v>0.32556930000000001</v>
       </c>
       <c r="J24" s="3">
-        <v>18.480419999999999</v>
+        <v>18.433689999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>0.1564547</v>
+        <v>4.0188689999999996</v>
       </c>
       <c r="L24" s="3">
-        <v>0.98694009999999999</v>
+        <v>9.8786149999999999</v>
       </c>
       <c r="M24" s="3">
-        <v>0.1099986</v>
+        <v>2.8255460000000001</v>
       </c>
       <c r="N24" s="3">
-        <v>1.0262309999999999</v>
+        <v>0.97321539999999995</v>
       </c>
       <c r="O24" s="3">
-        <v>991.46609999999998</v>
+        <v>991.39949999999999</v>
       </c>
       <c r="P24" s="3">
-        <v>46.84856577</v>
+        <v>46.848540360000001</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.179019980000007</v>
+        <v>-91.179055890000001</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45119.560115740744</v>
+        <v>45119.560358796298</v>
       </c>
       <c r="B25" s="3">
-        <v>23.396599999999999</v>
+        <v>43.725270000000002</v>
       </c>
       <c r="C25" s="3">
-        <v>4.9724459999999997</v>
+        <v>5.7301070000000003</v>
       </c>
       <c r="D25" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>6.2769800000000001E-2</v>
+        <v>6.282509E-2</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99850890000000003</v>
+        <v>0.99851610000000002</v>
       </c>
       <c r="H25" s="5">
-        <v>4.0800580000000002E-5</v>
+        <v>4.0834490000000003E-5</v>
       </c>
       <c r="I25" s="3">
-        <v>0.14408589999999999</v>
+        <v>0.32859890000000003</v>
       </c>
       <c r="J25" s="3">
-        <v>18.48029</v>
+        <v>18.4331</v>
       </c>
       <c r="K25" s="3">
-        <v>0.15519530000000001</v>
+        <v>4.0690660000000003</v>
       </c>
       <c r="L25" s="3">
-        <v>0.98403160000000001</v>
+        <v>9.9943969999999993</v>
       </c>
       <c r="M25" s="3">
-        <v>0.10911319999999999</v>
+        <v>2.8608380000000002</v>
       </c>
       <c r="N25" s="3">
-        <v>1.026481</v>
+        <v>0.97285549999999998</v>
       </c>
       <c r="O25" s="3">
-        <v>991.46730000000002</v>
+        <v>991.39880000000005</v>
       </c>
       <c r="P25" s="3">
-        <v>46.84856577</v>
+        <v>46.848538519999998</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.179019980000007</v>
+        <v>-91.17907194</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45119.560127314813</v>
+        <v>45119.560370370367</v>
       </c>
       <c r="B26" s="3">
-        <v>26.932739999999999</v>
+        <v>27.488859999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>5.0479859999999999</v>
+        <v>5.6433540000000004</v>
       </c>
       <c r="D26" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>6.2773179999999998E-2</v>
+        <v>6.283002E-2</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99850930000000004</v>
+        <v>0.99851719999999999</v>
       </c>
       <c r="H26" s="5">
-        <v>4.0802700000000002E-5</v>
+        <v>4.0839310000000001E-5</v>
       </c>
       <c r="I26" s="3">
-        <v>0.25052200000000002</v>
+        <v>0.41237390000000002</v>
       </c>
       <c r="J26" s="3">
-        <v>18.471769999999999</v>
+        <v>18.43479</v>
       </c>
       <c r="K26" s="3">
-        <v>0.1352517</v>
+        <v>4.3899889999999999</v>
       </c>
       <c r="L26" s="3">
-        <v>0.93752840000000004</v>
+        <v>10.7384</v>
       </c>
       <c r="M26" s="3">
-        <v>0.16263839999999999</v>
+        <v>3.0864699999999998</v>
       </c>
       <c r="N26" s="3">
-        <v>1.0190239999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O26" s="3">
-        <v>991.45129999999995</v>
+        <v>991.40800000000002</v>
       </c>
       <c r="P26" s="3">
-        <v>46.84856577</v>
+        <v>46.848538519999998</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.179019980000007</v>
+        <v>-91.17907194</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45119.56013888889</v>
+        <v>45119.560381944444</v>
       </c>
       <c r="B27" s="3">
-        <v>27.003889999999998</v>
+        <v>21.219550000000002</v>
       </c>
       <c r="C27" s="3">
-        <v>5.054195</v>
+        <v>5.6400819999999996</v>
       </c>
       <c r="D27" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>6.2773670000000004E-2</v>
+        <v>6.2830609999999995E-2</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99850939999999999</v>
+        <v>0.99851730000000005</v>
       </c>
       <c r="H27" s="5">
-        <v>4.0802939999999998E-5</v>
+        <v>4.0839739999999997E-5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.25240279999999998</v>
+        <v>0.41823329999999997</v>
       </c>
       <c r="J27" s="3">
-        <v>18.471209999999999</v>
+        <v>18.434650000000001</v>
       </c>
       <c r="K27" s="3">
-        <v>0.13388330000000001</v>
+        <v>4.425529</v>
       </c>
       <c r="L27" s="3">
-        <v>0.93433829999999995</v>
+        <v>10.820589999999999</v>
       </c>
       <c r="M27" s="3">
-        <v>0.16545029999999999</v>
+        <v>3.1114570000000001</v>
       </c>
       <c r="N27" s="3">
-        <v>1.0187820000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O27" s="3">
-        <v>991.45119999999997</v>
+        <v>991.40859999999998</v>
       </c>
       <c r="P27" s="3">
-        <v>46.848561099999998</v>
+        <v>46.848538519999998</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.179033410000002</v>
+        <v>-91.17907194</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45119.560150462959</v>
+        <v>45119.560393518521</v>
       </c>
       <c r="B28" s="3">
-        <v>27.075040000000001</v>
+        <v>14.950229999999999</v>
       </c>
       <c r="C28" s="3">
-        <v>5.0604050000000003</v>
+        <v>5.6368099999999997</v>
       </c>
       <c r="D28" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>6.2774170000000004E-2</v>
+        <v>6.2831200000000004E-2</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99850950000000005</v>
+        <v>0.99851730000000005</v>
       </c>
       <c r="H28" s="5">
-        <v>4.0803190000000002E-5</v>
+        <v>4.0840180000000001E-5</v>
       </c>
       <c r="I28" s="3">
-        <v>0.2542835</v>
+        <v>0.42409269999999999</v>
       </c>
       <c r="J28" s="3">
-        <v>18.470659999999999</v>
+        <v>18.434519999999999</v>
       </c>
       <c r="K28" s="3">
-        <v>0.13251489999999999</v>
+        <v>4.4610700000000003</v>
       </c>
       <c r="L28" s="3">
-        <v>0.93114810000000003</v>
+        <v>10.90279</v>
       </c>
       <c r="M28" s="3">
-        <v>0.1682621</v>
+        <v>3.136444</v>
       </c>
       <c r="N28" s="3">
-        <v>1.0185390000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O28" s="3">
-        <v>991.45100000000002</v>
+        <v>991.40930000000003</v>
       </c>
       <c r="P28" s="3">
-        <v>46.848561099999998</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.179033410000002</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45119.560162037036</v>
+        <v>45119.56040509259</v>
       </c>
       <c r="B29" s="3">
-        <v>26.74578</v>
+        <v>23.48291</v>
       </c>
       <c r="C29" s="3">
-        <v>5.0060450000000003</v>
+        <v>6.0021060000000004</v>
       </c>
       <c r="D29" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E29" s="3">
-        <v>6.2786480000000006E-2</v>
+        <v>6.2845300000000007E-2</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99851120000000004</v>
+        <v>0.99851889999999999</v>
       </c>
       <c r="H29" s="5">
-        <v>4.0811210000000001E-5</v>
+        <v>4.0847319999999999E-5</v>
       </c>
       <c r="I29" s="3">
-        <v>0.15431629999999999</v>
+        <v>0.44593749999999999</v>
       </c>
       <c r="J29" s="3">
-        <v>18.471270000000001</v>
+        <v>18.419090000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>0.34829650000000001</v>
+        <v>5.2909100000000002</v>
       </c>
       <c r="L29" s="3">
-        <v>1.4254549999999999</v>
+        <v>12.819470000000001</v>
       </c>
       <c r="M29" s="3">
-        <v>0.25397029999999998</v>
+        <v>3.7198799999999999</v>
       </c>
       <c r="N29" s="3">
-        <v>1.01831</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O29" s="3">
-        <v>991.44190000000003</v>
+        <v>991.44330000000002</v>
       </c>
       <c r="P29" s="3">
-        <v>46.848562289999997</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.179051419999993</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45119.560173611113</v>
+        <v>45119.560416666667</v>
       </c>
       <c r="B30" s="3">
-        <v>26.807970000000001</v>
+        <v>23.52636</v>
       </c>
       <c r="C30" s="3">
-        <v>5.0047490000000003</v>
+        <v>6.0194320000000001</v>
       </c>
       <c r="D30" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E30" s="3">
-        <v>6.2787229999999999E-2</v>
+        <v>6.2846150000000003E-2</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99851129999999999</v>
+        <v>0.99851900000000005</v>
       </c>
       <c r="H30" s="5">
-        <v>4.0811700000000001E-5</v>
+        <v>4.0847799999999999E-5</v>
       </c>
       <c r="I30" s="3">
-        <v>0.1512434</v>
+        <v>0.44901029999999997</v>
       </c>
       <c r="J30" s="3">
-        <v>18.471109999999999</v>
+        <v>18.418310000000002</v>
       </c>
       <c r="K30" s="3">
-        <v>0.35974810000000002</v>
+        <v>5.3422280000000004</v>
       </c>
       <c r="L30" s="3">
-        <v>1.45167</v>
+        <v>12.93806</v>
       </c>
       <c r="M30" s="3">
-        <v>0.25991649999999999</v>
+        <v>3.7559610000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>1.018127</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O30" s="3">
-        <v>991.44100000000003</v>
+        <v>991.44529999999997</v>
       </c>
       <c r="P30" s="3">
-        <v>46.848562289999997</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.179051419999993</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45119.560185185182</v>
+        <v>45119.560428240744</v>
       </c>
       <c r="B31" s="3">
-        <v>26.870159999999998</v>
+        <v>23.56981</v>
       </c>
       <c r="C31" s="3">
-        <v>5.0034530000000004</v>
+        <v>6.0367569999999997</v>
       </c>
       <c r="D31" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E31" s="3">
-        <v>6.2787990000000002E-2</v>
+        <v>6.2847020000000003E-2</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99851140000000005</v>
+        <v>0.99851909999999999</v>
       </c>
       <c r="H31" s="5">
-        <v>4.0812190000000001E-5</v>
+        <v>4.0848289999999999E-5</v>
       </c>
       <c r="I31" s="3">
-        <v>0.14817060000000001</v>
+        <v>0.45208300000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>18.470949999999998</v>
+        <v>18.417529999999999</v>
       </c>
       <c r="K31" s="3">
-        <v>0.37119970000000002</v>
+        <v>5.3935469999999999</v>
       </c>
       <c r="L31" s="3">
-        <v>1.477884</v>
+        <v>13.056660000000001</v>
       </c>
       <c r="M31" s="3">
-        <v>0.2658626</v>
+        <v>3.7920410000000002</v>
       </c>
       <c r="N31" s="3">
-        <v>1.017943</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O31" s="3">
-        <v>991.44010000000003</v>
+        <v>991.44730000000004</v>
       </c>
       <c r="P31" s="3">
-        <v>46.848562289999997</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.179051419999993</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45119.560196759259</v>
+        <v>45119.560439814813</v>
       </c>
       <c r="B32" s="3">
-        <v>53.755600000000001</v>
+        <v>23.61326</v>
       </c>
       <c r="C32" s="3">
-        <v>5.6739649999999999</v>
+        <v>6.0540830000000003</v>
       </c>
       <c r="D32" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>6.2786999999999996E-2</v>
+        <v>6.2847879999999995E-2</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99851129999999999</v>
+        <v>0.99851920000000005</v>
       </c>
       <c r="H32" s="5">
-        <v>4.0811540000000003E-5</v>
+        <v>4.084878E-5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.25138850000000001</v>
+        <v>0.4551557</v>
       </c>
       <c r="J32" s="3">
-        <v>18.461179999999999</v>
+        <v>18.41676</v>
       </c>
       <c r="K32" s="3">
-        <v>1.1527289999999999</v>
+        <v>5.4448660000000002</v>
       </c>
       <c r="L32" s="3">
-        <v>3.276967</v>
+        <v>13.17525</v>
       </c>
       <c r="M32" s="3">
-        <v>0.81313500000000005</v>
+        <v>3.828122</v>
       </c>
       <c r="N32" s="3">
-        <v>1.00257</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O32" s="3">
-        <v>991.43140000000005</v>
+        <v>991.44920000000002</v>
       </c>
       <c r="P32" s="3">
-        <v>46.848562289999997</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.179051419999993</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45119.560208333336</v>
+        <v>45119.56045138889</v>
       </c>
       <c r="B33" s="3">
-        <v>55.247549999999997</v>
+        <v>30.867260000000002</v>
       </c>
       <c r="C33" s="3">
-        <v>5.7101899999999999</v>
+        <v>5.966939</v>
       </c>
       <c r="D33" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>6.2787209999999996E-2</v>
+        <v>6.2859520000000002E-2</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99851129999999999</v>
+        <v>0.9985212</v>
       </c>
       <c r="H33" s="5">
-        <v>4.081169E-5</v>
+        <v>4.0858459999999999E-5</v>
       </c>
       <c r="I33" s="3">
-        <v>0.25488490000000003</v>
+        <v>0.43518089999999998</v>
       </c>
       <c r="J33" s="3">
-        <v>18.460650000000001</v>
+        <v>18.419149999999998</v>
       </c>
       <c r="K33" s="3">
-        <v>1.2011480000000001</v>
+        <v>5.9940030000000002</v>
       </c>
       <c r="L33" s="3">
-        <v>3.3883730000000001</v>
+        <v>14.441879999999999</v>
       </c>
       <c r="M33" s="3">
-        <v>0.84558149999999999</v>
+        <v>4.2142039999999996</v>
       </c>
       <c r="N33" s="3">
-        <v>1.001709</v>
+        <v>0.94904940000000004</v>
       </c>
       <c r="O33" s="3">
-        <v>991.4307</v>
+        <v>991.44</v>
       </c>
       <c r="P33" s="3">
-        <v>46.84856293</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.179068200000003</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45119.560219907406</v>
+        <v>45119.56046296296</v>
       </c>
       <c r="B34" s="3">
-        <v>56.739510000000003</v>
+        <v>31.350149999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>5.7464139999999997</v>
+        <v>5.9707369999999997</v>
       </c>
       <c r="D34" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E34" s="3">
-        <v>6.278744E-2</v>
+        <v>6.2860440000000004E-2</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99851129999999999</v>
+        <v>0.99852129999999995</v>
       </c>
       <c r="H34" s="5">
-        <v>4.0811830000000003E-5</v>
+        <v>4.0859119999999998E-5</v>
       </c>
       <c r="I34" s="3">
-        <v>0.25838129999999998</v>
+        <v>0.43479220000000002</v>
       </c>
       <c r="J34" s="3">
-        <v>18.46012</v>
+        <v>18.41892</v>
       </c>
       <c r="K34" s="3">
-        <v>1.2495670000000001</v>
+        <v>6.0411919999999997</v>
       </c>
       <c r="L34" s="3">
-        <v>3.4997790000000002</v>
+        <v>14.550789999999999</v>
       </c>
       <c r="M34" s="3">
-        <v>0.87802789999999997</v>
+        <v>4.2473809999999999</v>
       </c>
       <c r="N34" s="3">
-        <v>1.000848</v>
+        <v>0.94784000000000002</v>
       </c>
       <c r="O34" s="3">
-        <v>991.43010000000004</v>
+        <v>991.44039999999995</v>
       </c>
       <c r="P34" s="3">
-        <v>46.84856293</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.179068200000003</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45119.560231481482</v>
+        <v>45119.560474537036</v>
       </c>
       <c r="B35" s="3">
-        <v>303.17970000000003</v>
+        <v>31.833030000000001</v>
       </c>
       <c r="C35" s="3">
-        <v>5.7042000000000002</v>
+        <v>5.9745340000000002</v>
       </c>
       <c r="D35" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E35" s="3">
-        <v>6.2796699999999997E-2</v>
+        <v>6.2861349999999996E-2</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.9985136</v>
+        <v>0.99852149999999995</v>
       </c>
       <c r="H35" s="5">
-        <v>4.0822940000000001E-5</v>
+        <v>4.0859780000000003E-5</v>
       </c>
       <c r="I35" s="3">
-        <v>0.33473609999999998</v>
+        <v>0.4344034</v>
       </c>
       <c r="J35" s="3">
-        <v>18.454029999999999</v>
+        <v>18.418690000000002</v>
       </c>
       <c r="K35" s="3">
-        <v>1.666342</v>
+        <v>6.088381</v>
       </c>
       <c r="L35" s="3">
-        <v>5.9637929999999999</v>
+        <v>14.659689999999999</v>
       </c>
       <c r="M35" s="3">
-        <v>1.6303909999999999</v>
+        <v>4.2805580000000001</v>
       </c>
       <c r="N35" s="3">
-        <v>1.0005809999999999</v>
+        <v>0.94663059999999999</v>
       </c>
       <c r="O35" s="3">
-        <v>991.38729999999998</v>
+        <v>991.44069999999999</v>
       </c>
       <c r="P35" s="3">
-        <v>46.84856293</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.179068200000003</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45119.560243055559</v>
+        <v>45119.560486111113</v>
       </c>
       <c r="B36" s="3">
-        <v>317.32920000000001</v>
+        <v>15.735469999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>5.7173040000000004</v>
+        <v>5.9429689999999997</v>
       </c>
       <c r="D36" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>6.2797179999999994E-2</v>
+        <v>6.2874029999999997E-2</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99851380000000001</v>
+        <v>0.99852320000000006</v>
       </c>
       <c r="H36" s="5">
-        <v>4.0823530000000002E-5</v>
+        <v>4.086855E-5</v>
       </c>
       <c r="I36" s="3">
-        <v>0.34133530000000001</v>
+        <v>0.44798769999999999</v>
       </c>
       <c r="J36" s="3">
-        <v>18.453469999999999</v>
+        <v>18.398689999999998</v>
       </c>
       <c r="K36" s="3">
-        <v>1.707136</v>
+        <v>6.5057499999999999</v>
       </c>
       <c r="L36" s="3">
-        <v>6.1403150000000002</v>
+        <v>16.150079999999999</v>
       </c>
       <c r="M36" s="3">
-        <v>1.684266</v>
+        <v>4.7352910000000001</v>
       </c>
       <c r="N36" s="3">
-        <v>1.000211</v>
+        <v>0.94662829999999998</v>
       </c>
       <c r="O36" s="3">
-        <v>991.38469999999995</v>
+        <v>991.43989999999997</v>
       </c>
       <c r="P36" s="3">
-        <v>46.84856293</v>
+        <v>46.848533369999998</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.179068200000003</v>
+        <v>-91.179091080000006</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45119.560254629629</v>
+        <v>45119.560497685183</v>
       </c>
       <c r="B37" s="3">
-        <v>331.47859999999997</v>
+        <v>15.082050000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>5.7304079999999997</v>
+        <v>5.9398530000000003</v>
       </c>
       <c r="D37" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E37" s="3">
-        <v>6.279767E-2</v>
+        <v>6.2874940000000004E-2</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99851389999999995</v>
+        <v>0.99852339999999995</v>
       </c>
       <c r="H37" s="5">
-        <v>4.0824120000000002E-5</v>
+        <v>4.0869209999999999E-5</v>
       </c>
       <c r="I37" s="3">
-        <v>0.34793459999999998</v>
+        <v>0.44831939999999998</v>
       </c>
       <c r="J37" s="3">
-        <v>18.452909999999999</v>
+        <v>18.39772</v>
       </c>
       <c r="K37" s="3">
-        <v>1.7479309999999999</v>
+        <v>6.5397699999999999</v>
       </c>
       <c r="L37" s="3">
-        <v>6.3168360000000003</v>
+        <v>16.25508</v>
       </c>
       <c r="M37" s="3">
-        <v>1.73814</v>
+        <v>4.7673180000000004</v>
       </c>
       <c r="N37" s="3">
-        <v>0.99984240000000002</v>
+        <v>0.94611000000000001</v>
       </c>
       <c r="O37" s="3">
-        <v>991.38210000000004</v>
+        <v>991.43979999999999</v>
       </c>
       <c r="P37" s="3">
-        <v>46.848549679999998</v>
+        <v>46.848524519999998</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179095250000003</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45119.560266203705</v>
+        <v>45119.56050925926</v>
       </c>
       <c r="B38" s="3">
-        <v>237.1354</v>
+        <v>14.42863</v>
       </c>
       <c r="C38" s="3">
-        <v>5.5774439999999998</v>
+        <v>5.9367369999999999</v>
       </c>
       <c r="D38" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E38" s="3">
-        <v>6.2801940000000001E-2</v>
+        <v>6.2875849999999997E-2</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.9985134</v>
+        <v>0.99852350000000001</v>
       </c>
       <c r="H38" s="5">
-        <v>4.0821900000000003E-5</v>
+        <v>4.0869869999999998E-5</v>
       </c>
       <c r="I38" s="3">
-        <v>0.27819120000000003</v>
+        <v>0.44865110000000002</v>
       </c>
       <c r="J38" s="3">
-        <v>18.447140000000001</v>
+        <v>18.396750000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>2.6802009999999998</v>
+        <v>6.5737909999999999</v>
       </c>
       <c r="L38" s="3">
-        <v>6.9805210000000004</v>
+        <v>16.36009</v>
       </c>
       <c r="M38" s="3">
-        <v>1.941646</v>
+        <v>4.7993449999999998</v>
       </c>
       <c r="N38" s="3">
-        <v>0.99224979999999996</v>
+        <v>0.94559170000000003</v>
       </c>
       <c r="O38" s="3">
-        <v>991.44159999999999</v>
+        <v>991.43960000000004</v>
       </c>
       <c r="P38" s="3">
-        <v>46.848549679999998</v>
+        <v>46.848524519999998</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179095250000003</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45119.560277777775</v>
+        <v>45119.560520833336</v>
       </c>
       <c r="B39" s="3">
-        <v>237.4051</v>
+        <v>13.160500000000001</v>
       </c>
       <c r="C39" s="3">
-        <v>5.5681289999999999</v>
+        <v>6.0539290000000001</v>
       </c>
       <c r="D39" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E39" s="3">
-        <v>6.280239E-2</v>
+        <v>6.2887499999999999E-2</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.9985134</v>
+        <v>0.99852510000000005</v>
       </c>
       <c r="H39" s="5">
-        <v>4.0822019999999998E-5</v>
+        <v>4.0876939999999998E-5</v>
       </c>
       <c r="I39" s="3">
-        <v>0.27602789999999999</v>
+        <v>0.3856909</v>
       </c>
       <c r="J39" s="3">
-        <v>18.446680000000001</v>
+        <v>18.39602</v>
       </c>
       <c r="K39" s="3">
-        <v>2.7413880000000002</v>
+        <v>7.0465270000000002</v>
       </c>
       <c r="L39" s="3">
-        <v>7.072711</v>
+        <v>16.936800000000002</v>
       </c>
       <c r="M39" s="3">
-        <v>1.969832</v>
+        <v>4.9743789999999999</v>
       </c>
       <c r="N39" s="3">
-        <v>0.99181989999999998</v>
+        <v>0.90725230000000001</v>
       </c>
       <c r="O39" s="3">
-        <v>991.44389999999999</v>
+        <v>991.44830000000002</v>
       </c>
       <c r="P39" s="3">
-        <v>46.848549679999998</v>
+        <v>46.848524519999998</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179095250000003</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45119.560289351852</v>
+        <v>45119.560532407406</v>
       </c>
       <c r="B40" s="3">
-        <v>237.6747</v>
+        <v>12.764950000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>5.5588139999999999</v>
+        <v>6.0592100000000002</v>
       </c>
       <c r="D40" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E40" s="3">
-        <v>6.2802839999999999E-2</v>
+        <v>6.2888369999999999E-2</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99851350000000005</v>
+        <v>0.99852529999999995</v>
       </c>
       <c r="H40" s="5">
-        <v>4.082215E-5</v>
+        <v>4.0877490000000002E-5</v>
       </c>
       <c r="I40" s="3">
-        <v>0.27386450000000001</v>
+        <v>0.38282739999999998</v>
       </c>
       <c r="J40" s="3">
-        <v>18.44623</v>
+        <v>18.39556</v>
       </c>
       <c r="K40" s="3">
-        <v>2.802575</v>
+        <v>7.0798449999999997</v>
       </c>
       <c r="L40" s="3">
-        <v>7.1649010000000004</v>
+        <v>16.99915</v>
       </c>
       <c r="M40" s="3">
-        <v>1.9980180000000001</v>
+        <v>4.9933560000000003</v>
       </c>
       <c r="N40" s="3">
-        <v>0.99138999999999999</v>
+        <v>0.90531609999999996</v>
       </c>
       <c r="O40" s="3">
-        <v>991.44629999999995</v>
+        <v>991.44870000000003</v>
       </c>
       <c r="P40" s="3">
-        <v>46.848549679999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45119.560300925928</v>
+        <v>45119.560543981483</v>
       </c>
       <c r="B41" s="3">
-        <v>301.79520000000002</v>
+        <v>12.369389999999999</v>
       </c>
       <c r="C41" s="3">
-        <v>5.6490619999999998</v>
+        <v>6.0644900000000002</v>
       </c>
       <c r="D41" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E41" s="3">
-        <v>6.2808420000000004E-2</v>
+        <v>6.2889239999999999E-2</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99851420000000002</v>
+        <v>0.99852540000000001</v>
       </c>
       <c r="H41" s="5">
-        <v>4.0825660000000002E-5</v>
+        <v>4.087804E-5</v>
       </c>
       <c r="I41" s="3">
-        <v>0.26878059999999998</v>
+        <v>0.37996390000000002</v>
       </c>
       <c r="J41" s="3">
-        <v>18.444870000000002</v>
+        <v>18.39509</v>
       </c>
       <c r="K41" s="3">
-        <v>3.106376</v>
+        <v>7.1131630000000001</v>
       </c>
       <c r="L41" s="3">
-        <v>7.828144</v>
+        <v>17.061499999999999</v>
       </c>
       <c r="M41" s="3">
-        <v>2.2006130000000002</v>
+        <v>5.0123319999999998</v>
       </c>
       <c r="N41" s="3">
-        <v>0.97584689999999996</v>
+        <v>0.90337979999999996</v>
       </c>
       <c r="O41" s="3">
-        <v>991.39610000000005</v>
+        <v>991.44920000000002</v>
       </c>
       <c r="P41" s="3">
-        <v>46.848549679999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45119.560312499998</v>
+        <v>45119.560555555552</v>
       </c>
       <c r="B42" s="3">
-        <v>303.12419999999997</v>
+        <v>12.11013</v>
       </c>
       <c r="C42" s="3">
-        <v>5.6506129999999999</v>
+        <v>6.0220539999999998</v>
       </c>
       <c r="D42" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E42" s="3">
-        <v>6.2808820000000001E-2</v>
+        <v>6.2895859999999998E-2</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99851429999999997</v>
+        <v>0.99852629999999998</v>
       </c>
       <c r="H42" s="5">
-        <v>4.0825789999999997E-5</v>
+        <v>4.0882330000000002E-5</v>
       </c>
       <c r="I42" s="3">
-        <v>0.26692630000000001</v>
+        <v>0.4281064</v>
       </c>
       <c r="J42" s="3">
-        <v>18.444669999999999</v>
+        <v>18.382580000000001</v>
       </c>
       <c r="K42" s="3">
-        <v>3.1445270000000001</v>
+        <v>7.4754659999999999</v>
       </c>
       <c r="L42" s="3">
-        <v>7.8799380000000001</v>
+        <v>19.313610000000001</v>
       </c>
       <c r="M42" s="3">
-        <v>2.216453</v>
+        <v>5.7001379999999999</v>
       </c>
       <c r="N42" s="3">
-        <v>0.97482290000000005</v>
+        <v>0.87942220000000004</v>
       </c>
       <c r="O42" s="3">
-        <v>991.39469999999994</v>
+        <v>991.44079999999997</v>
       </c>
       <c r="P42" s="3">
-        <v>46.848549679999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45119.560324074075</v>
+        <v>45119.560567129629</v>
       </c>
       <c r="B43" s="3">
-        <v>304.45319999999998</v>
+        <v>12.06803</v>
       </c>
       <c r="C43" s="3">
-        <v>5.652164</v>
+        <v>6.0222170000000004</v>
       </c>
       <c r="D43" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E43" s="3">
-        <v>6.2809219999999999E-2</v>
+        <v>6.2896450000000007E-2</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99851429999999997</v>
+        <v>0.99852640000000004</v>
       </c>
       <c r="H43" s="5">
-        <v>4.082593E-5</v>
+        <v>4.0882700000000001E-5</v>
       </c>
       <c r="I43" s="3">
-        <v>0.26507199999999997</v>
+        <v>0.4292977</v>
       </c>
       <c r="J43" s="3">
-        <v>18.444459999999999</v>
+        <v>18.381910000000001</v>
       </c>
       <c r="K43" s="3">
-        <v>3.1826789999999998</v>
+        <v>7.5040089999999999</v>
       </c>
       <c r="L43" s="3">
-        <v>7.9317330000000004</v>
+        <v>19.4419</v>
       </c>
       <c r="M43" s="3">
-        <v>2.2322920000000002</v>
+        <v>5.7392960000000004</v>
       </c>
       <c r="N43" s="3">
-        <v>0.97379890000000002</v>
+        <v>0.87740530000000005</v>
       </c>
       <c r="O43" s="3">
-        <v>991.39329999999995</v>
+        <v>991.44060000000002</v>
       </c>
       <c r="P43" s="3">
-        <v>46.848549679999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.179059100000003</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45119.560335648152</v>
+        <v>45119.560578703706</v>
       </c>
       <c r="B44" s="3">
-        <v>66.874009999999998</v>
+        <v>12.025930000000001</v>
       </c>
       <c r="C44" s="3">
-        <v>5.7188999999999997</v>
+        <v>6.0223800000000001</v>
       </c>
       <c r="D44" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>6.2823299999999999E-2</v>
+        <v>6.2897030000000007E-2</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99851590000000001</v>
+        <v>0.99852649999999998</v>
       </c>
       <c r="H44" s="5">
-        <v>4.0833500000000001E-5</v>
+        <v>4.088307E-5</v>
       </c>
       <c r="I44" s="3">
-        <v>0.32253969999999998</v>
+        <v>0.43048890000000001</v>
       </c>
       <c r="J44" s="3">
-        <v>18.434280000000001</v>
+        <v>18.381250000000001</v>
       </c>
       <c r="K44" s="3">
-        <v>3.9686720000000002</v>
+        <v>7.5325509999999998</v>
       </c>
       <c r="L44" s="3">
-        <v>9.7628339999999998</v>
+        <v>19.5702</v>
       </c>
       <c r="M44" s="3">
-        <v>2.790254</v>
+        <v>5.778454</v>
       </c>
       <c r="N44" s="3">
-        <v>0.97357530000000003</v>
+        <v>0.87538839999999996</v>
       </c>
       <c r="O44" s="3">
-        <v>991.40020000000004</v>
+        <v>991.44029999999998</v>
       </c>
       <c r="P44" s="3">
-        <v>46.848540360000001</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.179055890000001</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45119.560347222221</v>
+        <v>45119.560590277775</v>
       </c>
       <c r="B45" s="3">
-        <v>55.299639999999997</v>
+        <v>11.52196</v>
       </c>
       <c r="C45" s="3">
-        <v>5.7245039999999996</v>
+        <v>5.9642160000000004</v>
       </c>
       <c r="D45" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>6.2824199999999997E-2</v>
+        <v>6.2921699999999997E-2</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99851599999999996</v>
+        <v>0.99852980000000002</v>
       </c>
       <c r="H45" s="5">
-        <v>4.0833990000000002E-5</v>
+        <v>4.0899109999999997E-5</v>
       </c>
       <c r="I45" s="3">
-        <v>0.32556930000000001</v>
+        <v>0.40576649999999997</v>
       </c>
       <c r="J45" s="3">
-        <v>18.433689999999999</v>
+        <v>18.37349</v>
       </c>
       <c r="K45" s="3">
-        <v>4.0188689999999996</v>
+        <v>8.5375750000000004</v>
       </c>
       <c r="L45" s="3">
-        <v>9.8786149999999999</v>
+        <v>20.51445</v>
       </c>
       <c r="M45" s="3">
-        <v>2.8255460000000001</v>
+        <v>6.0636140000000003</v>
       </c>
       <c r="N45" s="3">
-        <v>0.97321539999999995</v>
+        <v>0.87501410000000002</v>
       </c>
       <c r="O45" s="3">
-        <v>991.39949999999999</v>
+        <v>991.3895</v>
       </c>
       <c r="P45" s="3">
-        <v>46.848540360000001</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.179055890000001</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45119.560358796298</v>
+        <v>45119.560601851852</v>
       </c>
       <c r="B46" s="3">
-        <v>43.725270000000002</v>
+        <v>11.48785</v>
       </c>
       <c r="C46" s="3">
-        <v>5.7301070000000003</v>
+        <v>5.9603120000000001</v>
       </c>
       <c r="D46" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E46" s="3">
-        <v>6.282509E-2</v>
+        <v>6.2923099999999996E-2</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99851610000000002</v>
+        <v>0.99853000000000003</v>
       </c>
       <c r="H46" s="5">
-        <v>4.0834490000000003E-5</v>
+        <v>4.0900019999999999E-5</v>
       </c>
       <c r="I46" s="3">
-        <v>0.32859890000000003</v>
+        <v>0.40553030000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>18.4331</v>
+        <v>18.37283</v>
       </c>
       <c r="K46" s="3">
-        <v>4.0690660000000003</v>
+        <v>8.5965360000000004</v>
       </c>
       <c r="L46" s="3">
-        <v>9.9943969999999993</v>
+        <v>20.610029999999998</v>
       </c>
       <c r="M46" s="3">
-        <v>2.8608380000000002</v>
+        <v>6.0926390000000001</v>
       </c>
       <c r="N46" s="3">
-        <v>0.97285549999999998</v>
+        <v>0.87450530000000004</v>
       </c>
       <c r="O46" s="3">
-        <v>991.39880000000005</v>
+        <v>991.38670000000002</v>
       </c>
       <c r="P46" s="3">
-        <v>46.848538519999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.17907194</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45119.560370370367</v>
+        <v>45119.560613425929</v>
       </c>
       <c r="B47" s="3">
-        <v>27.488859999999999</v>
+        <v>11.45374</v>
       </c>
       <c r="C47" s="3">
-        <v>5.6433540000000004</v>
+        <v>5.9564079999999997</v>
       </c>
       <c r="D47" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E47" s="3">
-        <v>6.283002E-2</v>
+        <v>6.2924499999999994E-2</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99851719999999999</v>
+        <v>0.99853009999999998</v>
       </c>
       <c r="H47" s="5">
-        <v>4.0839310000000001E-5</v>
+        <v>4.0900930000000002E-5</v>
       </c>
       <c r="I47" s="3">
-        <v>0.41237390000000002</v>
+        <v>0.40529409999999999</v>
       </c>
       <c r="J47" s="3">
-        <v>18.43479</v>
+        <v>18.372170000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>4.3899889999999999</v>
+        <v>8.6554970000000004</v>
       </c>
       <c r="L47" s="3">
-        <v>10.7384</v>
+        <v>20.70561</v>
       </c>
       <c r="M47" s="3">
-        <v>3.0864699999999998</v>
+        <v>6.121664</v>
       </c>
       <c r="N47" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.87399660000000001</v>
       </c>
       <c r="O47" s="3">
-        <v>991.40800000000002</v>
+        <v>991.38400000000001</v>
       </c>
       <c r="P47" s="3">
-        <v>46.848538519999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.17907194</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45119.560381944444</v>
+        <v>45119.560624999998</v>
       </c>
       <c r="B48" s="3">
-        <v>21.219550000000002</v>
+        <v>11.41963</v>
       </c>
       <c r="C48" s="3">
-        <v>5.6400819999999996</v>
+        <v>5.9525030000000001</v>
       </c>
       <c r="D48" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E48" s="3">
-        <v>6.2830609999999995E-2</v>
+        <v>6.2925900000000007E-2</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99851730000000005</v>
+        <v>0.99853040000000004</v>
       </c>
       <c r="H48" s="5">
-        <v>4.0839739999999997E-5</v>
+        <v>4.0901839999999998E-5</v>
       </c>
       <c r="I48" s="3">
-        <v>0.41823329999999997</v>
+        <v>0.40505790000000003</v>
       </c>
       <c r="J48" s="3">
-        <v>18.434650000000001</v>
+        <v>18.371500000000001</v>
       </c>
       <c r="K48" s="3">
-        <v>4.425529</v>
+        <v>8.7144580000000005</v>
       </c>
       <c r="L48" s="3">
-        <v>10.820589999999999</v>
+        <v>20.801179999999999</v>
       </c>
       <c r="M48" s="3">
-        <v>3.1114570000000001</v>
+        <v>6.1506889999999999</v>
       </c>
       <c r="N48" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.87348789999999998</v>
       </c>
       <c r="O48" s="3">
-        <v>991.40859999999998</v>
+        <v>991.38120000000004</v>
       </c>
       <c r="P48" s="3">
-        <v>46.848538519999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.17907194</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45119.560393518521</v>
+        <v>45119.560636574075</v>
       </c>
       <c r="B49" s="3">
-        <v>14.950229999999999</v>
+        <v>11.11806</v>
       </c>
       <c r="C49" s="3">
-        <v>5.6368099999999997</v>
+        <v>5.790959</v>
       </c>
       <c r="D49" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E49" s="3">
-        <v>6.2831200000000004E-2</v>
+        <v>6.2937900000000005E-2</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99851730000000005</v>
+        <v>0.99853210000000003</v>
       </c>
       <c r="H49" s="5">
-        <v>4.0840180000000001E-5</v>
+        <v>4.0909640000000002E-5</v>
       </c>
       <c r="I49" s="3">
-        <v>0.42409269999999999</v>
+        <v>0.40355930000000001</v>
       </c>
       <c r="J49" s="3">
-        <v>18.434519999999999</v>
+        <v>18.352160000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>4.4610700000000003</v>
+        <v>9.1064659999999993</v>
       </c>
       <c r="L49" s="3">
-        <v>10.90279</v>
+        <v>22.309799999999999</v>
       </c>
       <c r="M49" s="3">
-        <v>3.136444</v>
+        <v>6.6097510000000002</v>
       </c>
       <c r="N49" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.88989030000000002</v>
       </c>
       <c r="O49" s="3">
-        <v>991.40930000000003</v>
+        <v>991.43409999999994</v>
       </c>
       <c r="P49" s="3">
-        <v>46.848533369999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45119.56040509259</v>
+        <v>45119.560648148145</v>
       </c>
       <c r="B50" s="3">
-        <v>23.48291</v>
+        <v>11.09173</v>
       </c>
       <c r="C50" s="3">
-        <v>6.0021060000000004</v>
+        <v>5.7816000000000001</v>
       </c>
       <c r="D50" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E50" s="3">
-        <v>6.2845300000000007E-2</v>
+        <v>6.2939040000000002E-2</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99851889999999999</v>
+        <v>0.99853219999999998</v>
       </c>
       <c r="H50" s="5">
-        <v>4.0847319999999999E-5</v>
+        <v>4.0910379999999999E-5</v>
       </c>
       <c r="I50" s="3">
-        <v>0.44593749999999999</v>
+        <v>0.40297650000000002</v>
       </c>
       <c r="J50" s="3">
-        <v>18.419090000000001</v>
+        <v>18.351019999999998</v>
       </c>
       <c r="K50" s="3">
-        <v>5.2909100000000002</v>
+        <v>9.148123</v>
       </c>
       <c r="L50" s="3">
-        <v>12.819470000000001</v>
+        <v>22.4072</v>
       </c>
       <c r="M50" s="3">
-        <v>3.7198799999999999</v>
+        <v>6.6393449999999996</v>
       </c>
       <c r="N50" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.8906847</v>
       </c>
       <c r="O50" s="3">
-        <v>991.44330000000002</v>
+        <v>991.43560000000002</v>
       </c>
       <c r="P50" s="3">
-        <v>46.848533369999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45119.560416666667</v>
+        <v>45119.560659722221</v>
       </c>
       <c r="B51" s="3">
-        <v>23.52636</v>
+        <v>11.0654</v>
       </c>
       <c r="C51" s="3">
-        <v>6.0194320000000001</v>
+        <v>5.77224</v>
       </c>
       <c r="D51" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E51" s="3">
-        <v>6.2846150000000003E-2</v>
+        <v>6.2940179999999998E-2</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99851900000000005</v>
+        <v>0.99853239999999999</v>
       </c>
       <c r="H51" s="5">
-        <v>4.0847799999999999E-5</v>
+        <v>4.0911119999999997E-5</v>
       </c>
       <c r="I51" s="3">
-        <v>0.44901029999999997</v>
+        <v>0.40239370000000002</v>
       </c>
       <c r="J51" s="3">
-        <v>18.418310000000002</v>
+        <v>18.349869999999999</v>
       </c>
       <c r="K51" s="3">
-        <v>5.3422280000000004</v>
+        <v>9.1897780000000004</v>
       </c>
       <c r="L51" s="3">
-        <v>12.93806</v>
+        <v>22.5046</v>
       </c>
       <c r="M51" s="3">
-        <v>3.7559610000000001</v>
+        <v>6.6689379999999998</v>
       </c>
       <c r="N51" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.89147909999999997</v>
       </c>
       <c r="O51" s="3">
-        <v>991.44529999999997</v>
+        <v>991.43709999999999</v>
       </c>
       <c r="P51" s="3">
-        <v>46.848533369999998</v>
+        <v>46.84851501</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179097589999998</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45119.560428240744</v>
+        <v>45119.560671296298</v>
       </c>
       <c r="B52" s="3">
-        <v>23.56981</v>
+        <v>11.533160000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>6.0367569999999997</v>
+        <v>6.0829000000000004</v>
       </c>
       <c r="D52" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E52" s="3">
-        <v>6.2847020000000003E-2</v>
+        <v>6.2968150000000001E-2</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99851909999999999</v>
+        <v>0.99853619999999998</v>
       </c>
       <c r="H52" s="5">
-        <v>4.0848289999999999E-5</v>
+        <v>4.0929300000000001E-5</v>
       </c>
       <c r="I52" s="3">
-        <v>0.45208300000000001</v>
+        <v>0.2998345</v>
       </c>
       <c r="J52" s="3">
-        <v>18.417529999999999</v>
+        <v>18.340910000000001</v>
       </c>
       <c r="K52" s="3">
-        <v>5.3935469999999999</v>
+        <v>9.8771470000000008</v>
       </c>
       <c r="L52" s="3">
-        <v>13.056660000000001</v>
+        <v>23.47954</v>
       </c>
       <c r="M52" s="3">
-        <v>3.7920410000000002</v>
+        <v>6.9660739999999999</v>
       </c>
       <c r="N52" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.89945240000000004</v>
       </c>
       <c r="O52" s="3">
-        <v>991.44730000000004</v>
+        <v>991.45579999999995</v>
       </c>
       <c r="P52" s="3">
-        <v>46.848533369999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45119.560439814813</v>
+        <v>45119.560682870368</v>
       </c>
       <c r="B53" s="3">
-        <v>23.61326</v>
+        <v>11.54992</v>
       </c>
       <c r="C53" s="3">
-        <v>6.0540830000000003</v>
+        <v>6.0951449999999996</v>
       </c>
       <c r="D53" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E53" s="3">
-        <v>6.2847879999999995E-2</v>
+        <v>6.2969839999999999E-2</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99851920000000005</v>
+        <v>0.99853639999999999</v>
       </c>
       <c r="H53" s="5">
-        <v>4.084878E-5</v>
+        <v>4.0930399999999997E-5</v>
       </c>
       <c r="I53" s="3">
-        <v>0.4551557</v>
+        <v>0.29461530000000002</v>
       </c>
       <c r="J53" s="3">
-        <v>18.41676</v>
+        <v>18.340039999999998</v>
       </c>
       <c r="K53" s="3">
-        <v>5.4448660000000002</v>
+        <v>9.9211229999999997</v>
       </c>
       <c r="L53" s="3">
-        <v>13.17525</v>
+        <v>23.562529999999999</v>
       </c>
       <c r="M53" s="3">
-        <v>3.828122</v>
+        <v>6.991352</v>
       </c>
       <c r="N53" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.90019260000000001</v>
       </c>
       <c r="O53" s="3">
-        <v>991.44920000000002</v>
+        <v>991.45780000000002</v>
       </c>
       <c r="P53" s="3">
-        <v>46.848533369999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45119.56045138889</v>
+        <v>45119.560694444444</v>
       </c>
       <c r="B54" s="3">
-        <v>30.867260000000002</v>
+        <v>11.56668</v>
       </c>
       <c r="C54" s="3">
-        <v>5.966939</v>
+        <v>6.1073899999999997</v>
       </c>
       <c r="D54" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>6.2859520000000002E-2</v>
+        <v>6.2971529999999998E-2</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0.9985212</v>
+        <v>0.9985366</v>
       </c>
       <c r="H54" s="5">
-        <v>4.0858459999999999E-5</v>
+        <v>4.0931499999999999E-5</v>
       </c>
       <c r="I54" s="3">
-        <v>0.43518089999999998</v>
+        <v>0.28939619999999999</v>
       </c>
       <c r="J54" s="3">
-        <v>18.419149999999998</v>
+        <v>18.33916</v>
       </c>
       <c r="K54" s="3">
-        <v>5.9940030000000002</v>
+        <v>9.9650979999999993</v>
       </c>
       <c r="L54" s="3">
-        <v>14.441879999999999</v>
+        <v>23.645530000000001</v>
       </c>
       <c r="M54" s="3">
-        <v>4.2142039999999996</v>
+        <v>7.0166310000000003</v>
       </c>
       <c r="N54" s="3">
-        <v>0.94904940000000004</v>
+        <v>0.90093270000000003</v>
       </c>
       <c r="O54" s="3">
-        <v>991.44</v>
+        <v>991.45979999999997</v>
       </c>
       <c r="P54" s="3">
-        <v>46.848533369999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45119.56046296296</v>
+        <v>45119.560706018521</v>
       </c>
       <c r="B55" s="3">
-        <v>31.350149999999999</v>
+        <v>11.88008</v>
       </c>
       <c r="C55" s="3">
-        <v>5.9707369999999997</v>
+        <v>6.0133970000000003</v>
       </c>
       <c r="D55" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>6.2860440000000004E-2</v>
+        <v>6.2976389999999993E-2</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99852129999999995</v>
+        <v>0.99853729999999996</v>
       </c>
       <c r="H55" s="5">
-        <v>4.0859119999999998E-5</v>
+        <v>4.0934650000000003E-5</v>
       </c>
       <c r="I55" s="3">
-        <v>0.43479220000000002</v>
+        <v>0.41020620000000002</v>
       </c>
       <c r="J55" s="3">
-        <v>18.41892</v>
+        <v>18.324480000000001</v>
       </c>
       <c r="K55" s="3">
-        <v>6.0411919999999997</v>
+        <v>10.292289999999999</v>
       </c>
       <c r="L55" s="3">
-        <v>14.550789999999999</v>
+        <v>24.388449999999999</v>
       </c>
       <c r="M55" s="3">
-        <v>4.2473809999999999</v>
+        <v>7.5329819999999996</v>
       </c>
       <c r="N55" s="3">
-        <v>0.94784000000000002</v>
+        <v>0.96304880000000004</v>
       </c>
       <c r="O55" s="3">
-        <v>991.44039999999995</v>
+        <v>991.46770000000004</v>
       </c>
       <c r="P55" s="3">
-        <v>46.848533369999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q55" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45119.560474537036</v>
+        <v>45119.560717592591</v>
       </c>
       <c r="B56" s="3">
-        <v>31.833030000000001</v>
+        <v>11.90551</v>
       </c>
       <c r="C56" s="3">
-        <v>5.9745340000000002</v>
+        <v>6.0151589999999997</v>
       </c>
       <c r="D56" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E56" s="3">
-        <v>6.2861349999999996E-2</v>
+        <v>6.2977249999999999E-2</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99852149999999995</v>
+        <v>0.99853740000000002</v>
       </c>
       <c r="H56" s="5">
-        <v>4.0859780000000003E-5</v>
+        <v>4.0935210000000001E-5</v>
       </c>
       <c r="I56" s="3">
-        <v>0.4344034</v>
+        <v>0.41410629999999998</v>
       </c>
       <c r="J56" s="3">
-        <v>18.418690000000002</v>
+        <v>18.323540000000001</v>
       </c>
       <c r="K56" s="3">
-        <v>6.088381</v>
+        <v>10.32408</v>
       </c>
       <c r="L56" s="3">
-        <v>14.659689999999999</v>
+        <v>24.448090000000001</v>
       </c>
       <c r="M56" s="3">
-        <v>4.2805580000000001</v>
+        <v>7.5657930000000002</v>
       </c>
       <c r="N56" s="3">
-        <v>0.94663059999999999</v>
+        <v>0.96636509999999998</v>
       </c>
       <c r="O56" s="3">
-        <v>991.44069999999999</v>
+        <v>991.46849999999995</v>
       </c>
       <c r="P56" s="3">
-        <v>46.848533369999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q56" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45119.560486111113</v>
+        <v>45119.560729166667</v>
       </c>
       <c r="B57" s="3">
-        <v>15.735469999999999</v>
+        <v>11.930949999999999</v>
       </c>
       <c r="C57" s="3">
-        <v>5.9429689999999997</v>
+        <v>6.0169199999999998</v>
       </c>
       <c r="D57" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E57" s="3">
-        <v>6.2874029999999997E-2</v>
+        <v>6.2978099999999995E-2</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99852320000000006</v>
+        <v>0.99853749999999997</v>
       </c>
       <c r="H57" s="5">
-        <v>4.086855E-5</v>
+        <v>4.093577E-5</v>
       </c>
       <c r="I57" s="3">
-        <v>0.44798769999999999</v>
+        <v>0.4180063</v>
       </c>
       <c r="J57" s="3">
-        <v>18.398689999999998</v>
+        <v>18.322590000000002</v>
       </c>
       <c r="K57" s="3">
-        <v>6.5057499999999999</v>
+        <v>10.355880000000001</v>
       </c>
       <c r="L57" s="3">
-        <v>16.150079999999999</v>
+        <v>24.507729999999999</v>
       </c>
       <c r="M57" s="3">
-        <v>4.7352910000000001</v>
+        <v>7.5986050000000001</v>
       </c>
       <c r="N57" s="3">
-        <v>0.94662829999999998</v>
+        <v>0.96968140000000003</v>
       </c>
       <c r="O57" s="3">
-        <v>991.43989999999997</v>
+        <v>991.46939999999995</v>
       </c>
       <c r="P57" s="3">
-        <v>46.848533369999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q57" s="3">
-        <v>-91.179091080000006</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45119.560497685183</v>
+        <v>45119.560740740744</v>
       </c>
       <c r="B58" s="3">
-        <v>15.082050000000001</v>
+        <v>12.63198</v>
       </c>
       <c r="C58" s="3">
-        <v>5.9398530000000003</v>
+        <v>5.9054320000000002</v>
       </c>
       <c r="D58" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E58" s="3">
-        <v>6.2874940000000004E-2</v>
+        <v>6.3008819999999993E-2</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99852339999999995</v>
+        <v>0.99854169999999998</v>
       </c>
       <c r="H58" s="5">
-        <v>4.0869209999999999E-5</v>
+        <v>4.0955740000000001E-5</v>
       </c>
       <c r="I58" s="3">
-        <v>0.44831939999999998</v>
+        <v>0.3615292</v>
       </c>
       <c r="J58" s="3">
-        <v>18.39772</v>
+        <v>18.311589999999999</v>
       </c>
       <c r="K58" s="3">
-        <v>6.5397699999999999</v>
+        <v>11.06908</v>
       </c>
       <c r="L58" s="3">
-        <v>16.25508</v>
+        <v>26.158650000000002</v>
       </c>
       <c r="M58" s="3">
-        <v>4.7673180000000004</v>
+        <v>7.818492</v>
       </c>
       <c r="N58" s="3">
-        <v>0.94611000000000001</v>
+        <v>0.95519639999999995</v>
       </c>
       <c r="O58" s="3">
-        <v>991.43979999999999</v>
+        <v>991.44349999999997</v>
       </c>
       <c r="P58" s="3">
-        <v>46.848524519999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q58" s="3">
-        <v>-91.179095250000003</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45119.56050925926</v>
+        <v>45119.560752314814</v>
       </c>
       <c r="B59" s="3">
-        <v>14.42863</v>
+        <v>12.67465</v>
       </c>
       <c r="C59" s="3">
-        <v>5.9367369999999999</v>
+        <v>5.897837</v>
       </c>
       <c r="D59" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E59" s="3">
-        <v>6.2875849999999997E-2</v>
+        <v>6.301052E-2</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99852350000000001</v>
+        <v>0.99854200000000004</v>
       </c>
       <c r="H59" s="5">
-        <v>4.0869869999999998E-5</v>
+        <v>4.0956839999999997E-5</v>
       </c>
       <c r="I59" s="3">
-        <v>0.44865110000000002</v>
+        <v>0.3610836</v>
       </c>
       <c r="J59" s="3">
-        <v>18.396750000000001</v>
+        <v>18.31071</v>
       </c>
       <c r="K59" s="3">
-        <v>6.5737909999999999</v>
+        <v>11.11298</v>
       </c>
       <c r="L59" s="3">
-        <v>16.36009</v>
+        <v>26.259889999999999</v>
       </c>
       <c r="M59" s="3">
-        <v>4.7993449999999998</v>
+        <v>7.8407900000000001</v>
       </c>
       <c r="N59" s="3">
-        <v>0.94559170000000003</v>
+        <v>0.95574800000000004</v>
       </c>
       <c r="O59" s="3">
-        <v>991.43960000000004</v>
+        <v>991.44240000000002</v>
       </c>
       <c r="P59" s="3">
-        <v>46.848524519999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q59" s="3">
-        <v>-91.179095250000003</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45119.560520833336</v>
+        <v>45119.560763888891</v>
       </c>
       <c r="B60" s="3">
-        <v>13.160500000000001</v>
+        <v>12.717309999999999</v>
       </c>
       <c r="C60" s="3">
-        <v>6.0539290000000001</v>
+        <v>5.8902429999999999</v>
       </c>
       <c r="D60" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E60" s="3">
-        <v>6.2887499999999999E-2</v>
+        <v>6.3012209999999999E-2</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99852510000000005</v>
+        <v>0.99854220000000005</v>
       </c>
       <c r="H60" s="5">
-        <v>4.0876939999999998E-5</v>
+        <v>4.0957939999999999E-5</v>
       </c>
       <c r="I60" s="3">
-        <v>0.3856909</v>
+        <v>0.36063810000000002</v>
       </c>
       <c r="J60" s="3">
-        <v>18.39602</v>
+        <v>18.309830000000002</v>
       </c>
       <c r="K60" s="3">
-        <v>7.0465270000000002</v>
+        <v>11.156879999999999</v>
       </c>
       <c r="L60" s="3">
-        <v>16.936800000000002</v>
+        <v>26.361129999999999</v>
       </c>
       <c r="M60" s="3">
-        <v>4.9743789999999999</v>
+        <v>7.8630880000000003</v>
       </c>
       <c r="N60" s="3">
-        <v>0.90725230000000001</v>
+        <v>0.95629969999999997</v>
       </c>
       <c r="O60" s="3">
-        <v>991.44830000000002</v>
+        <v>991.44129999999996</v>
       </c>
       <c r="P60" s="3">
-        <v>46.848524519999998</v>
+        <v>46.848504890000001</v>
       </c>
       <c r="Q60" s="3">
-        <v>-91.179095250000003</v>
+        <v>-91.179104769999995</v>
       </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45119.560532407406</v>
+        <v>45119.56077546296</v>
       </c>
       <c r="B61" s="3">
-        <v>12.764950000000001</v>
+        <v>13.11158</v>
       </c>
       <c r="C61" s="3">
-        <v>6.0592100000000002</v>
+        <v>5.9901350000000004</v>
       </c>
       <c r="D61" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E61" s="3">
-        <v>6.2888369999999999E-2</v>
+        <v>6.3020880000000001E-2</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0.99852529999999995</v>
+        <v>0.99854330000000002</v>
       </c>
       <c r="H61" s="5">
-        <v>4.0877490000000002E-5</v>
+        <v>4.0963580000000001E-5</v>
       </c>
       <c r="I61" s="3">
-        <v>0.38282739999999998</v>
+        <v>0.37804090000000001</v>
       </c>
       <c r="J61" s="3">
-        <v>18.39556</v>
+        <v>18.292310000000001</v>
       </c>
       <c r="K61" s="3">
-        <v>7.0798449999999997</v>
+        <v>11.41952</v>
       </c>
       <c r="L61" s="3">
-        <v>16.99915</v>
+        <v>26.96884</v>
       </c>
       <c r="M61" s="3">
-        <v>4.9933560000000003</v>
+        <v>8.0401310000000006</v>
       </c>
       <c r="N61" s="3">
-        <v>0.90531609999999996</v>
+        <v>0.91711569999999998</v>
       </c>
       <c r="O61" s="3">
-        <v>991.44870000000003</v>
+        <v>991.38940000000002</v>
       </c>
       <c r="P61" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q61" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45119.560543981483</v>
+        <v>45119.560787037037</v>
       </c>
       <c r="B62" s="3">
-        <v>12.369389999999999</v>
+        <v>13.14696</v>
       </c>
       <c r="C62" s="3">
-        <v>6.0644900000000002</v>
+        <v>5.9930880000000002</v>
       </c>
       <c r="D62" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E62" s="3">
-        <v>6.2889239999999999E-2</v>
+        <v>6.302199E-2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99852540000000001</v>
+        <v>0.99854350000000003</v>
       </c>
       <c r="H62" s="5">
-        <v>4.087804E-5</v>
+        <v>4.0964290000000003E-5</v>
       </c>
       <c r="I62" s="3">
-        <v>0.37996390000000002</v>
+        <v>0.37773269999999998</v>
       </c>
       <c r="J62" s="3">
-        <v>18.39509</v>
+        <v>18.291170000000001</v>
       </c>
       <c r="K62" s="3">
-        <v>7.1131630000000001</v>
+        <v>11.44834</v>
       </c>
       <c r="L62" s="3">
-        <v>17.061499999999999</v>
+        <v>27.03538</v>
       </c>
       <c r="M62" s="3">
-        <v>5.0123319999999998</v>
+        <v>8.0540269999999996</v>
       </c>
       <c r="N62" s="3">
-        <v>0.90337979999999996</v>
+        <v>0.91476570000000001</v>
       </c>
       <c r="O62" s="3">
-        <v>991.44920000000002</v>
+        <v>991.38620000000003</v>
       </c>
       <c r="P62" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q62" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>45119.560555555552</v>
+        <v>45119.560798611114</v>
       </c>
       <c r="B63" s="3">
-        <v>12.11013</v>
+        <v>13.18233</v>
       </c>
       <c r="C63" s="3">
-        <v>6.0220539999999998</v>
+        <v>5.9960420000000001</v>
       </c>
       <c r="D63" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E63" s="3">
-        <v>6.2895859999999998E-2</v>
+        <v>6.3023090000000004E-2</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>0.99852629999999998</v>
+        <v>0.99854359999999998</v>
       </c>
       <c r="H63" s="5">
-        <v>4.0882330000000002E-5</v>
+        <v>4.0965009999999999E-5</v>
       </c>
       <c r="I63" s="3">
-        <v>0.4281064</v>
+        <v>0.3774245</v>
       </c>
       <c r="J63" s="3">
-        <v>18.382580000000001</v>
+        <v>18.290019999999998</v>
       </c>
       <c r="K63" s="3">
-        <v>7.4754659999999999</v>
+        <v>11.47716</v>
       </c>
       <c r="L63" s="3">
-        <v>19.313610000000001</v>
+        <v>27.101929999999999</v>
       </c>
       <c r="M63" s="3">
-        <v>5.7001379999999999</v>
+        <v>8.0679230000000004</v>
       </c>
       <c r="N63" s="3">
-        <v>0.87942220000000004</v>
+        <v>0.91241570000000005</v>
       </c>
       <c r="O63" s="3">
-        <v>991.44079999999997</v>
+        <v>991.38289999999995</v>
       </c>
       <c r="P63" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q63" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>45119.560567129629</v>
+        <v>45119.560810185183</v>
       </c>
       <c r="B64" s="3">
-        <v>12.06803</v>
+        <v>14.817349999999999</v>
       </c>
       <c r="C64" s="3">
-        <v>6.0222170000000004</v>
+        <v>6.0752129999999998</v>
       </c>
       <c r="D64" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E64" s="3">
-        <v>6.2896450000000007E-2</v>
+        <v>6.3044260000000005E-2</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>0.99852640000000004</v>
+        <v>0.9985484</v>
       </c>
       <c r="H64" s="5">
-        <v>4.0882700000000001E-5</v>
+        <v>4.0987900000000001E-5</v>
       </c>
       <c r="I64" s="3">
-        <v>0.4292977</v>
+        <v>0.45459709999999998</v>
       </c>
       <c r="J64" s="3">
-        <v>18.381910000000001</v>
+        <v>18.274380000000001</v>
       </c>
       <c r="K64" s="3">
-        <v>7.5040089999999999</v>
+        <v>11.97658</v>
       </c>
       <c r="L64" s="3">
-        <v>19.4419</v>
+        <v>28.179120000000001</v>
       </c>
       <c r="M64" s="3">
-        <v>5.7392960000000004</v>
+        <v>8.4203709999999994</v>
       </c>
       <c r="N64" s="3">
-        <v>0.87740530000000005</v>
+        <v>0.95001119999999994</v>
       </c>
       <c r="O64" s="3">
-        <v>991.44060000000002</v>
+        <v>991.41600000000005</v>
       </c>
       <c r="P64" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q64" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>45119.560578703706</v>
+        <v>45119.56082175926</v>
       </c>
       <c r="B65" s="3">
-        <v>12.025930000000001</v>
+        <v>14.912430000000001</v>
       </c>
       <c r="C65" s="3">
-        <v>6.0223800000000001</v>
+        <v>6.0815340000000004</v>
       </c>
       <c r="D65" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E65" s="3">
-        <v>6.2897030000000007E-2</v>
+        <v>6.3045550000000006E-2</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>0.99852649999999998</v>
+        <v>0.99854869999999996</v>
       </c>
       <c r="H65" s="5">
-        <v>4.088307E-5</v>
+        <v>4.0989229999999999E-5</v>
       </c>
       <c r="I65" s="3">
-        <v>0.43048890000000001</v>
+        <v>0.45909030000000001</v>
       </c>
       <c r="J65" s="3">
-        <v>18.381250000000001</v>
+        <v>18.27318</v>
       </c>
       <c r="K65" s="3">
-        <v>7.5325509999999998</v>
+        <v>12.008559999999999</v>
       </c>
       <c r="L65" s="3">
-        <v>19.5702</v>
+        <v>28.24896</v>
       </c>
       <c r="M65" s="3">
-        <v>5.778454</v>
+        <v>8.4428560000000008</v>
       </c>
       <c r="N65" s="3">
-        <v>0.87538839999999996</v>
+        <v>0.95119200000000004</v>
       </c>
       <c r="O65" s="3">
-        <v>991.44029999999998</v>
+        <v>991.41660000000002</v>
       </c>
       <c r="P65" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q65" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>45119.560590277775</v>
+        <v>45119.560833333337</v>
       </c>
       <c r="B66" s="3">
-        <v>11.52196</v>
+        <v>15.00751</v>
       </c>
       <c r="C66" s="3">
-        <v>5.9642160000000004</v>
+        <v>6.0878550000000002</v>
       </c>
       <c r="D66" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E66" s="3">
-        <v>6.2921699999999997E-2</v>
+        <v>6.3046859999999996E-2</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>0.99852980000000002</v>
+        <v>0.99854900000000002</v>
       </c>
       <c r="H66" s="5">
-        <v>4.0899109999999997E-5</v>
+        <v>4.0990559999999997E-5</v>
       </c>
       <c r="I66" s="3">
-        <v>0.40576649999999997</v>
+        <v>0.46358339999999998</v>
       </c>
       <c r="J66" s="3">
-        <v>18.37349</v>
+        <v>18.271979999999999</v>
       </c>
       <c r="K66" s="3">
-        <v>8.5375750000000004</v>
+        <v>12.04054</v>
       </c>
       <c r="L66" s="3">
-        <v>20.51445</v>
+        <v>28.31879</v>
       </c>
       <c r="M66" s="3">
-        <v>6.0636140000000003</v>
+        <v>8.4653410000000004</v>
       </c>
       <c r="N66" s="3">
-        <v>0.87501410000000002</v>
+        <v>0.95237280000000002</v>
       </c>
       <c r="O66" s="3">
-        <v>991.3895</v>
+        <v>991.41729999999995</v>
       </c>
       <c r="P66" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q66" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>45119.560601851852</v>
+        <v>45119.560844907406</v>
       </c>
       <c r="B67" s="3">
-        <v>11.48785</v>
+        <v>16.110890000000001</v>
       </c>
       <c r="C67" s="3">
-        <v>5.9603120000000001</v>
+        <v>5.9219280000000003</v>
       </c>
       <c r="D67" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>19.545449999999999</v>
       </c>
       <c r="E67" s="3">
-        <v>6.2923099999999996E-2</v>
+        <v>22.43871</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>9.3755699999999997E-3</v>
       </c>
       <c r="G67" s="3">
-        <v>0.99853000000000003</v>
-      </c>
-      <c r="H67" s="5">
-        <v>4.0900019999999999E-5</v>
+        <v>0.99855799999999995</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.458517E-2</v>
       </c>
       <c r="I67" s="3">
-        <v>0.40553030000000001</v>
+        <v>0.41725669999999998</v>
       </c>
       <c r="J67" s="3">
-        <v>18.37283</v>
+        <v>18.261469999999999</v>
       </c>
       <c r="K67" s="3">
-        <v>8.5965360000000004</v>
+        <v>12.026590000000001</v>
       </c>
       <c r="L67" s="3">
-        <v>20.610029999999998</v>
+        <v>28.334109999999999</v>
       </c>
       <c r="M67" s="3">
-        <v>6.0926390000000001</v>
+        <v>8.4555369999999996</v>
       </c>
       <c r="N67" s="3">
-        <v>0.87450530000000004</v>
+        <v>0.98429909999999998</v>
       </c>
       <c r="O67" s="3">
-        <v>991.38670000000002</v>
+        <v>991.43550000000005</v>
       </c>
       <c r="P67" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q67" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>45119.560613425929</v>
+        <v>45119.560856481483</v>
       </c>
       <c r="B68" s="3">
-        <v>11.45374</v>
+        <v>16.205649999999999</v>
       </c>
       <c r="C68" s="3">
-        <v>5.9564079999999997</v>
+        <v>5.9146010000000002</v>
       </c>
       <c r="D68" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>20.600739999999998</v>
       </c>
       <c r="E68" s="3">
-        <v>6.2924499999999994E-2</v>
+        <v>23.650210000000001</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>9.8831949999999991E-3</v>
       </c>
       <c r="G68" s="3">
-        <v>0.99853009999999998</v>
-      </c>
-      <c r="H68" s="5">
-        <v>4.0900930000000002E-5</v>
+        <v>0.99855859999999996</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1.537264E-2</v>
       </c>
       <c r="I68" s="3">
-        <v>0.40529409999999999</v>
+        <v>0.41639169999999998</v>
       </c>
       <c r="J68" s="3">
-        <v>18.372170000000001</v>
+        <v>18.260570000000001</v>
       </c>
       <c r="K68" s="3">
-        <v>8.6554970000000004</v>
+        <v>12.03654</v>
       </c>
       <c r="L68" s="3">
-        <v>20.70561</v>
+        <v>28.358029999999999</v>
       </c>
       <c r="M68" s="3">
-        <v>6.121664</v>
+        <v>8.4625319999999995</v>
       </c>
       <c r="N68" s="3">
-        <v>0.87399660000000001</v>
+        <v>0.9868441</v>
       </c>
       <c r="O68" s="3">
-        <v>991.38400000000001</v>
+        <v>991.43709999999999</v>
       </c>
       <c r="P68" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q68" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>45119.560624999998</v>
+        <v>45119.560868055552</v>
       </c>
       <c r="B69" s="3">
-        <v>11.41963</v>
+        <v>16.3004</v>
       </c>
       <c r="C69" s="3">
-        <v>5.9525030000000001</v>
+        <v>5.9072740000000001</v>
       </c>
       <c r="D69" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>21.656020000000002</v>
       </c>
       <c r="E69" s="3">
-        <v>6.2925900000000007E-2</v>
+        <v>24.861699999999999</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <v>1.039082E-2</v>
       </c>
       <c r="G69" s="3">
-        <v>0.99853040000000004</v>
-      </c>
-      <c r="H69" s="5">
-        <v>4.0901839999999998E-5</v>
+        <v>0.99855919999999998</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.6160109999999998E-2</v>
       </c>
       <c r="I69" s="3">
-        <v>0.40505790000000003</v>
+        <v>0.41552670000000003</v>
       </c>
       <c r="J69" s="3">
-        <v>18.371500000000001</v>
+        <v>18.25967</v>
       </c>
       <c r="K69" s="3">
-        <v>8.7144580000000005</v>
+        <v>12.04649</v>
       </c>
       <c r="L69" s="3">
-        <v>20.801179999999999</v>
+        <v>28.38195</v>
       </c>
       <c r="M69" s="3">
-        <v>6.1506889999999999</v>
+        <v>8.4695280000000004</v>
       </c>
       <c r="N69" s="3">
-        <v>0.87348789999999998</v>
+        <v>0.98938899999999996</v>
       </c>
       <c r="O69" s="3">
-        <v>991.38120000000004</v>
+        <v>991.43880000000001</v>
       </c>
       <c r="P69" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q69" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>45119.560636574075</v>
+        <v>45119.560879629629</v>
       </c>
       <c r="B70" s="3">
-        <v>11.11806</v>
+        <v>25.404540000000001</v>
       </c>
       <c r="C70" s="3">
-        <v>5.790959</v>
+        <v>6.3272930000000001</v>
       </c>
       <c r="D70" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>2.804287</v>
       </c>
       <c r="E70" s="3">
-        <v>6.2937900000000005E-2</v>
+        <v>3.2194280000000002</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1.3225229999999999E-3</v>
       </c>
       <c r="G70" s="3">
-        <v>0.99853210000000003</v>
-      </c>
-      <c r="H70" s="5">
-        <v>4.0909640000000002E-5</v>
+        <v>0.99855680000000002</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2.0926310000000002E-3</v>
       </c>
       <c r="I70" s="3">
-        <v>0.40355930000000001</v>
+        <v>0.45263029999999999</v>
       </c>
       <c r="J70" s="3">
-        <v>18.352160000000001</v>
+        <v>18.22927</v>
       </c>
       <c r="K70" s="3">
-        <v>9.1064659999999993</v>
+        <v>12.22434</v>
       </c>
       <c r="L70" s="3">
-        <v>22.309799999999999</v>
+        <v>28.529150000000001</v>
       </c>
       <c r="M70" s="3">
-        <v>6.6097510000000002</v>
+        <v>8.5945669999999996</v>
       </c>
       <c r="N70" s="3">
-        <v>0.88989030000000002</v>
+        <v>0.93658180000000002</v>
       </c>
       <c r="O70" s="3">
-        <v>991.43409999999994</v>
+        <v>991.38840000000005</v>
       </c>
       <c r="P70" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q70" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>45119.560648148145</v>
+        <v>45119.560891203706</v>
       </c>
       <c r="B71" s="3">
-        <v>11.09173</v>
+        <v>25.90821</v>
       </c>
       <c r="C71" s="3">
-        <v>5.7816000000000001</v>
+        <v>6.3456999999999999</v>
       </c>
       <c r="D71" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>2.2462249999999999</v>
       </c>
       <c r="E71" s="3">
-        <v>6.2939040000000002E-2</v>
+        <v>2.5787589999999998</v>
       </c>
       <c r="F71" s="3">
-        <v>0</v>
+        <v>1.0540770000000001E-3</v>
       </c>
       <c r="G71" s="3">
-        <v>0.99853219999999998</v>
-      </c>
-      <c r="H71" s="5">
-        <v>4.0910379999999999E-5</v>
+        <v>0.99855689999999997</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1.676196E-3</v>
       </c>
       <c r="I71" s="3">
-        <v>0.40297650000000002</v>
+        <v>0.45353280000000001</v>
       </c>
       <c r="J71" s="3">
-        <v>18.351019999999998</v>
+        <v>18.227429999999998</v>
       </c>
       <c r="K71" s="3">
-        <v>9.148123</v>
+        <v>12.23329</v>
       </c>
       <c r="L71" s="3">
-        <v>22.4072</v>
+        <v>28.537009999999999</v>
       </c>
       <c r="M71" s="3">
-        <v>6.6393449999999996</v>
+        <v>8.6008569999999995</v>
       </c>
       <c r="N71" s="3">
-        <v>0.8906847</v>
+        <v>0.93449959999999999</v>
       </c>
       <c r="O71" s="3">
-        <v>991.43560000000002</v>
+        <v>991.38610000000006</v>
       </c>
       <c r="P71" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q71" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>45119.560659722221</v>
+        <v>45119.560902777775</v>
       </c>
       <c r="B72" s="3">
-        <v>11.0654</v>
+        <v>26.41188</v>
       </c>
       <c r="C72" s="3">
-        <v>5.77224</v>
+        <v>6.3641079999999999</v>
       </c>
       <c r="D72" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>1.6881630000000001</v>
       </c>
       <c r="E72" s="3">
-        <v>6.2940179999999998E-2</v>
+        <v>1.938091</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>7.8563099999999996E-4</v>
       </c>
       <c r="G72" s="3">
-        <v>0.99853239999999999</v>
-      </c>
-      <c r="H72" s="5">
-        <v>4.0911119999999997E-5</v>
+        <v>0.99855689999999997</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1.259762E-3</v>
       </c>
       <c r="I72" s="3">
-        <v>0.40239370000000002</v>
+        <v>0.45443509999999998</v>
       </c>
       <c r="J72" s="3">
-        <v>18.349869999999999</v>
+        <v>18.2256</v>
       </c>
       <c r="K72" s="3">
-        <v>9.1897780000000004</v>
+        <v>12.242229999999999</v>
       </c>
       <c r="L72" s="3">
-        <v>22.5046</v>
+        <v>28.54487</v>
       </c>
       <c r="M72" s="3">
-        <v>6.6689379999999998</v>
+        <v>8.6071469999999994</v>
       </c>
       <c r="N72" s="3">
-        <v>0.89147909999999997</v>
+        <v>0.93241739999999995</v>
       </c>
       <c r="O72" s="3">
-        <v>991.43709999999999</v>
+        <v>991.38390000000004</v>
       </c>
       <c r="P72" s="3">
-        <v>46.84851501</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q72" s="3">
-        <v>-91.179097589999998</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>45119.560671296298</v>
+        <v>45119.560914351852</v>
       </c>
       <c r="B73" s="3">
-        <v>11.533160000000001</v>
+        <v>26.915559999999999</v>
       </c>
       <c r="C73" s="3">
-        <v>6.0829000000000004</v>
+        <v>6.3825149999999997</v>
       </c>
       <c r="D73" s="3">
-        <v>5.4945059999999997E-2</v>
+        <v>1.1301000000000001</v>
       </c>
       <c r="E73" s="3">
-        <v>6.2968150000000001E-2</v>
+        <v>1.2974220000000001</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <v>5.1718480000000002E-4</v>
       </c>
       <c r="G73" s="3">
-        <v>0.99853619999999998</v>
-      </c>
-      <c r="H73" s="5">
-        <v>4.0929300000000001E-5</v>
+        <v>0.99855700000000003</v>
+      </c>
+      <c r="H73" s="3">
+        <v>8.4332709999999998E-4</v>
       </c>
       <c r="I73" s="3">
-        <v>0.2998345</v>
+        <v>0.45533750000000001</v>
       </c>
       <c r="J73" s="3">
-        <v>18.340910000000001</v>
+        <v>18.223769999999998</v>
       </c>
       <c r="K73" s="3">
-        <v>9.8771470000000008</v>
+        <v>12.25118</v>
       </c>
       <c r="L73" s="3">
-        <v>23.47954</v>
+        <v>28.55274</v>
       </c>
       <c r="M73" s="3">
-        <v>6.9660739999999999</v>
+        <v>8.6134369999999993</v>
       </c>
       <c r="N73" s="3">
-        <v>0.89945240000000004</v>
+        <v>0.93033520000000003</v>
       </c>
       <c r="O73" s="3">
-        <v>991.45579999999995</v>
+        <v>991.38160000000005</v>
       </c>
       <c r="P73" s="3">
-        <v>46.848504890000001</v>
+        <v>46.848495329999999</v>
       </c>
       <c r="Q73" s="3">
-        <v>-91.179104769999995</v>
+        <v>-91.179104510000002</v>
       </c>
       <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45119.560682870368</v>
-      </c>
-      <c r="B74" s="3">
-        <v>11.54992</v>
-      </c>
-      <c r="C74" s="3">
-        <v>6.0951449999999996</v>
-      </c>
-      <c r="D74" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E74" s="3">
-        <v>6.2969839999999999E-2</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99853639999999999</v>
-      </c>
-      <c r="H74" s="5">
-        <v>4.0930399999999997E-5</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.29461530000000002</v>
-      </c>
-      <c r="J74" s="3">
-        <v>18.340039999999998</v>
-      </c>
-      <c r="K74" s="3">
-        <v>9.9211229999999997</v>
-      </c>
-      <c r="L74" s="3">
-        <v>23.562529999999999</v>
-      </c>
-      <c r="M74" s="3">
-        <v>6.991352</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.90019260000000001</v>
-      </c>
-      <c r="O74" s="3">
-        <v>991.45780000000002</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45119.560694444444</v>
-      </c>
-      <c r="B75" s="3">
-        <v>11.56668</v>
-      </c>
-      <c r="C75" s="3">
-        <v>6.1073899999999997</v>
-      </c>
-      <c r="D75" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E75" s="3">
-        <v>6.2971529999999998E-2</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.9985366</v>
-      </c>
-      <c r="H75" s="5">
-        <v>4.0931499999999999E-5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.28939619999999999</v>
-      </c>
-      <c r="J75" s="3">
-        <v>18.33916</v>
-      </c>
-      <c r="K75" s="3">
-        <v>9.9650979999999993</v>
-      </c>
-      <c r="L75" s="3">
-        <v>23.645530000000001</v>
-      </c>
-      <c r="M75" s="3">
-        <v>7.0166310000000003</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.90093270000000003</v>
-      </c>
-      <c r="O75" s="3">
-        <v>991.45979999999997</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45119.560706018521</v>
-      </c>
-      <c r="B76" s="3">
-        <v>11.88008</v>
-      </c>
-      <c r="C76" s="3">
-        <v>6.0133970000000003</v>
-      </c>
-      <c r="D76" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6.2976389999999993E-2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99853729999999996</v>
-      </c>
-      <c r="H76" s="5">
-        <v>4.0934650000000003E-5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0.41020620000000002</v>
-      </c>
-      <c r="J76" s="3">
-        <v>18.324480000000001</v>
-      </c>
-      <c r="K76" s="3">
-        <v>10.292289999999999</v>
-      </c>
-      <c r="L76" s="3">
-        <v>24.388449999999999</v>
-      </c>
-      <c r="M76" s="3">
-        <v>7.5329819999999996</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.96304880000000004</v>
-      </c>
-      <c r="O76" s="3">
-        <v>991.46770000000004</v>
-      </c>
-      <c r="P76" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45119.560717592591</v>
-      </c>
-      <c r="B77" s="3">
-        <v>11.90551</v>
-      </c>
-      <c r="C77" s="3">
-        <v>6.0151589999999997</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>6.2977249999999999E-2</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99853740000000002</v>
-      </c>
-      <c r="H77" s="5">
-        <v>4.0935210000000001E-5</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0.41410629999999998</v>
-      </c>
-      <c r="J77" s="3">
-        <v>18.323540000000001</v>
-      </c>
-      <c r="K77" s="3">
-        <v>10.32408</v>
-      </c>
-      <c r="L77" s="3">
-        <v>24.448090000000001</v>
-      </c>
-      <c r="M77" s="3">
-        <v>7.5657930000000002</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.96636509999999998</v>
-      </c>
-      <c r="O77" s="3">
-        <v>991.46849999999995</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45119.560729166667</v>
-      </c>
-      <c r="B78" s="3">
-        <v>11.930949999999999</v>
-      </c>
-      <c r="C78" s="3">
-        <v>6.0169199999999998</v>
-      </c>
-      <c r="D78" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E78" s="3">
-        <v>6.2978099999999995E-2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.99853749999999997</v>
-      </c>
-      <c r="H78" s="5">
-        <v>4.093577E-5</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.4180063</v>
-      </c>
-      <c r="J78" s="3">
-        <v>18.322590000000002</v>
-      </c>
-      <c r="K78" s="3">
-        <v>10.355880000000001</v>
-      </c>
-      <c r="L78" s="3">
-        <v>24.507729999999999</v>
-      </c>
-      <c r="M78" s="3">
-        <v>7.5986050000000001</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.96968140000000003</v>
-      </c>
-      <c r="O78" s="3">
-        <v>991.46939999999995</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45119.560740740744</v>
-      </c>
-      <c r="B79" s="3">
-        <v>12.63198</v>
-      </c>
-      <c r="C79" s="3">
-        <v>5.9054320000000002</v>
-      </c>
-      <c r="D79" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E79" s="3">
-        <v>6.3008819999999993E-2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99854169999999998</v>
-      </c>
-      <c r="H79" s="5">
-        <v>4.0955740000000001E-5</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.3615292</v>
-      </c>
-      <c r="J79" s="3">
-        <v>18.311589999999999</v>
-      </c>
-      <c r="K79" s="3">
-        <v>11.06908</v>
-      </c>
-      <c r="L79" s="3">
-        <v>26.158650000000002</v>
-      </c>
-      <c r="M79" s="3">
-        <v>7.818492</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.95519639999999995</v>
-      </c>
-      <c r="O79" s="3">
-        <v>991.44349999999997</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45119.560752314814</v>
-      </c>
-      <c r="B80" s="3">
-        <v>12.67465</v>
-      </c>
-      <c r="C80" s="3">
-        <v>5.897837</v>
-      </c>
-      <c r="D80" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E80" s="3">
-        <v>6.301052E-2</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99854200000000004</v>
-      </c>
-      <c r="H80" s="5">
-        <v>4.0956839999999997E-5</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0.3610836</v>
-      </c>
-      <c r="J80" s="3">
-        <v>18.31071</v>
-      </c>
-      <c r="K80" s="3">
-        <v>11.11298</v>
-      </c>
-      <c r="L80" s="3">
-        <v>26.259889999999999</v>
-      </c>
-      <c r="M80" s="3">
-        <v>7.8407900000000001</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.95574800000000004</v>
-      </c>
-      <c r="O80" s="3">
-        <v>991.44240000000002</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45119.560763888891</v>
-      </c>
-      <c r="B81" s="3">
-        <v>12.717309999999999</v>
-      </c>
-      <c r="C81" s="3">
-        <v>5.8902429999999999</v>
-      </c>
-      <c r="D81" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E81" s="3">
-        <v>6.3012209999999999E-2</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99854220000000005</v>
-      </c>
-      <c r="H81" s="5">
-        <v>4.0957939999999999E-5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.36063810000000002</v>
-      </c>
-      <c r="J81" s="3">
-        <v>18.309830000000002</v>
-      </c>
-      <c r="K81" s="3">
-        <v>11.156879999999999</v>
-      </c>
-      <c r="L81" s="3">
-        <v>26.361129999999999</v>
-      </c>
-      <c r="M81" s="3">
-        <v>7.8630880000000003</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.95629969999999997</v>
-      </c>
-      <c r="O81" s="3">
-        <v>991.44129999999996</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.848504890000001</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.179104769999995</v>
-      </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45119.56077546296</v>
-      </c>
-      <c r="B82" s="3">
-        <v>13.11158</v>
-      </c>
-      <c r="C82" s="3">
-        <v>5.9901350000000004</v>
-      </c>
-      <c r="D82" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E82" s="3">
-        <v>6.3020880000000001E-2</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99854330000000002</v>
-      </c>
-      <c r="H82" s="5">
-        <v>4.0963580000000001E-5</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0.37804090000000001</v>
-      </c>
-      <c r="J82" s="3">
-        <v>18.292310000000001</v>
-      </c>
-      <c r="K82" s="3">
-        <v>11.41952</v>
-      </c>
-      <c r="L82" s="3">
-        <v>26.96884</v>
-      </c>
-      <c r="M82" s="3">
-        <v>8.0401310000000006</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.91711569999999998</v>
-      </c>
-      <c r="O82" s="3">
-        <v>991.38940000000002</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>45119.560787037037</v>
-      </c>
-      <c r="B83" s="3">
-        <v>13.14696</v>
-      </c>
-      <c r="C83" s="3">
-        <v>5.9930880000000002</v>
-      </c>
-      <c r="D83" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6.302199E-2</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.99854350000000003</v>
-      </c>
-      <c r="H83" s="5">
-        <v>4.0964290000000003E-5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0.37773269999999998</v>
-      </c>
-      <c r="J83" s="3">
-        <v>18.291170000000001</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11.44834</v>
-      </c>
-      <c r="L83" s="3">
-        <v>27.03538</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8.0540269999999996</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0.91476570000000001</v>
-      </c>
-      <c r="O83" s="3">
-        <v>991.38620000000003</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>45119.560798611114</v>
-      </c>
-      <c r="B84" s="3">
-        <v>13.18233</v>
-      </c>
-      <c r="C84" s="3">
-        <v>5.9960420000000001</v>
-      </c>
-      <c r="D84" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E84" s="3">
-        <v>6.3023090000000004E-2</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.99854359999999998</v>
-      </c>
-      <c r="H84" s="5">
-        <v>4.0965009999999999E-5</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0.3774245</v>
-      </c>
-      <c r="J84" s="3">
-        <v>18.290019999999998</v>
-      </c>
-      <c r="K84" s="3">
-        <v>11.47716</v>
-      </c>
-      <c r="L84" s="3">
-        <v>27.101929999999999</v>
-      </c>
-      <c r="M84" s="3">
-        <v>8.0679230000000004</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0.91241570000000005</v>
-      </c>
-      <c r="O84" s="3">
-        <v>991.38289999999995</v>
-      </c>
-      <c r="P84" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>45119.560810185183</v>
-      </c>
-      <c r="B85" s="3">
-        <v>14.817349999999999</v>
-      </c>
-      <c r="C85" s="3">
-        <v>6.0752129999999998</v>
-      </c>
-      <c r="D85" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E85" s="3">
-        <v>6.3044260000000005E-2</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.9985484</v>
-      </c>
-      <c r="H85" s="5">
-        <v>4.0987900000000001E-5</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0.45459709999999998</v>
-      </c>
-      <c r="J85" s="3">
-        <v>18.274380000000001</v>
-      </c>
-      <c r="K85" s="3">
-        <v>11.97658</v>
-      </c>
-      <c r="L85" s="3">
-        <v>28.179120000000001</v>
-      </c>
-      <c r="M85" s="3">
-        <v>8.4203709999999994</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0.95001119999999994</v>
-      </c>
-      <c r="O85" s="3">
-        <v>991.41600000000005</v>
-      </c>
-      <c r="P85" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>45119.56082175926</v>
-      </c>
-      <c r="B86" s="3">
-        <v>14.912430000000001</v>
-      </c>
-      <c r="C86" s="3">
-        <v>6.0815340000000004</v>
-      </c>
-      <c r="D86" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E86" s="3">
-        <v>6.3045550000000006E-2</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.99854869999999996</v>
-      </c>
-      <c r="H86" s="5">
-        <v>4.0989229999999999E-5</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0.45909030000000001</v>
-      </c>
-      <c r="J86" s="3">
-        <v>18.27318</v>
-      </c>
-      <c r="K86" s="3">
-        <v>12.008559999999999</v>
-      </c>
-      <c r="L86" s="3">
-        <v>28.24896</v>
-      </c>
-      <c r="M86" s="3">
-        <v>8.4428560000000008</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0.95119200000000004</v>
-      </c>
-      <c r="O86" s="3">
-        <v>991.41660000000002</v>
-      </c>
-      <c r="P86" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>45119.560833333337</v>
-      </c>
-      <c r="B87" s="3">
-        <v>15.00751</v>
-      </c>
-      <c r="C87" s="3">
-        <v>6.0878550000000002</v>
-      </c>
-      <c r="D87" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E87" s="3">
-        <v>6.3046859999999996E-2</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.99854900000000002</v>
-      </c>
-      <c r="H87" s="5">
-        <v>4.0990559999999997E-5</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0.46358339999999998</v>
-      </c>
-      <c r="J87" s="3">
-        <v>18.271979999999999</v>
-      </c>
-      <c r="K87" s="3">
-        <v>12.04054</v>
-      </c>
-      <c r="L87" s="3">
-        <v>28.31879</v>
-      </c>
-      <c r="M87" s="3">
-        <v>8.4653410000000004</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0.95237280000000002</v>
-      </c>
-      <c r="O87" s="3">
-        <v>991.41729999999995</v>
-      </c>
-      <c r="P87" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>45119.560844907406</v>
-      </c>
-      <c r="B88" s="3">
-        <v>16.110890000000001</v>
-      </c>
-      <c r="C88" s="3">
-        <v>5.9219280000000003</v>
-      </c>
-      <c r="D88" s="3">
-        <v>19.545449999999999</v>
-      </c>
-      <c r="E88" s="3">
-        <v>22.43871</v>
-      </c>
-      <c r="F88" s="3">
-        <v>9.3755699999999997E-3</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0.99855799999999995</v>
-      </c>
-      <c r="H88" s="3">
-        <v>1.458517E-2</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0.41725669999999998</v>
-      </c>
-      <c r="J88" s="3">
-        <v>18.261469999999999</v>
-      </c>
-      <c r="K88" s="3">
-        <v>12.026590000000001</v>
-      </c>
-      <c r="L88" s="3">
-        <v>28.334109999999999</v>
-      </c>
-      <c r="M88" s="3">
-        <v>8.4555369999999996</v>
-      </c>
-      <c r="N88" s="3">
-        <v>0.98429909999999998</v>
-      </c>
-      <c r="O88" s="3">
-        <v>991.43550000000005</v>
-      </c>
-      <c r="P88" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>45119.560856481483</v>
-      </c>
-      <c r="B89" s="3">
-        <v>16.205649999999999</v>
-      </c>
-      <c r="C89" s="3">
-        <v>5.9146010000000002</v>
-      </c>
-      <c r="D89" s="3">
-        <v>20.600739999999998</v>
-      </c>
-      <c r="E89" s="3">
-        <v>23.650210000000001</v>
-      </c>
-      <c r="F89" s="3">
-        <v>9.8831949999999991E-3</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0.99855859999999996</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1.537264E-2</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0.41639169999999998</v>
-      </c>
-      <c r="J89" s="3">
-        <v>18.260570000000001</v>
-      </c>
-      <c r="K89" s="3">
-        <v>12.03654</v>
-      </c>
-      <c r="L89" s="3">
-        <v>28.358029999999999</v>
-      </c>
-      <c r="M89" s="3">
-        <v>8.4625319999999995</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0.9868441</v>
-      </c>
-      <c r="O89" s="3">
-        <v>991.43709999999999</v>
-      </c>
-      <c r="P89" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>45119.560868055552</v>
-      </c>
-      <c r="B90" s="3">
-        <v>16.3004</v>
-      </c>
-      <c r="C90" s="3">
-        <v>5.9072740000000001</v>
-      </c>
-      <c r="D90" s="3">
-        <v>21.656020000000002</v>
-      </c>
-      <c r="E90" s="3">
-        <v>24.861699999999999</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1.039082E-2</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0.99855919999999998</v>
-      </c>
-      <c r="H90" s="3">
-        <v>1.6160109999999998E-2</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0.41552670000000003</v>
-      </c>
-      <c r="J90" s="3">
-        <v>18.25967</v>
-      </c>
-      <c r="K90" s="3">
-        <v>12.04649</v>
-      </c>
-      <c r="L90" s="3">
-        <v>28.38195</v>
-      </c>
-      <c r="M90" s="3">
-        <v>8.4695280000000004</v>
-      </c>
-      <c r="N90" s="3">
-        <v>0.98938899999999996</v>
-      </c>
-      <c r="O90" s="3">
-        <v>991.43880000000001</v>
-      </c>
-      <c r="P90" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>45119.560879629629</v>
-      </c>
-      <c r="B91" s="3">
-        <v>25.404540000000001</v>
-      </c>
-      <c r="C91" s="3">
-        <v>6.3272930000000001</v>
-      </c>
-      <c r="D91" s="3">
-        <v>2.804287</v>
-      </c>
-      <c r="E91" s="3">
-        <v>3.2194280000000002</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1.3225229999999999E-3</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0.99855680000000002</v>
-      </c>
-      <c r="H91" s="3">
-        <v>2.0926310000000002E-3</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0.45263029999999999</v>
-      </c>
-      <c r="J91" s="3">
-        <v>18.22927</v>
-      </c>
-      <c r="K91" s="3">
-        <v>12.22434</v>
-      </c>
-      <c r="L91" s="3">
-        <v>28.529150000000001</v>
-      </c>
-      <c r="M91" s="3">
-        <v>8.5945669999999996</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0.93658180000000002</v>
-      </c>
-      <c r="O91" s="3">
-        <v>991.38840000000005</v>
-      </c>
-      <c r="P91" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>45119.560891203706</v>
-      </c>
-      <c r="B92" s="3">
-        <v>25.90821</v>
-      </c>
-      <c r="C92" s="3">
-        <v>6.3456999999999999</v>
-      </c>
-      <c r="D92" s="3">
-        <v>2.2462249999999999</v>
-      </c>
-      <c r="E92" s="3">
-        <v>2.5787589999999998</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1.0540770000000001E-3</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0.99855689999999997</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1.676196E-3</v>
-      </c>
-      <c r="I92" s="3">
-        <v>0.45353280000000001</v>
-      </c>
-      <c r="J92" s="3">
-        <v>18.227429999999998</v>
-      </c>
-      <c r="K92" s="3">
-        <v>12.23329</v>
-      </c>
-      <c r="L92" s="3">
-        <v>28.537009999999999</v>
-      </c>
-      <c r="M92" s="3">
-        <v>8.6008569999999995</v>
-      </c>
-      <c r="N92" s="3">
-        <v>0.93449959999999999</v>
-      </c>
-      <c r="O92" s="3">
-        <v>991.38610000000006</v>
-      </c>
-      <c r="P92" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>45119.560902777775</v>
-      </c>
-      <c r="B93" s="3">
-        <v>26.41188</v>
-      </c>
-      <c r="C93" s="3">
-        <v>6.3641079999999999</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1.6881630000000001</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1.938091</v>
-      </c>
-      <c r="F93" s="3">
-        <v>7.8563099999999996E-4</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0.99855689999999997</v>
-      </c>
-      <c r="H93" s="3">
-        <v>1.259762E-3</v>
-      </c>
-      <c r="I93" s="3">
-        <v>0.45443509999999998</v>
-      </c>
-      <c r="J93" s="3">
-        <v>18.2256</v>
-      </c>
-      <c r="K93" s="3">
-        <v>12.242229999999999</v>
-      </c>
-      <c r="L93" s="3">
-        <v>28.54487</v>
-      </c>
-      <c r="M93" s="3">
-        <v>8.6071469999999994</v>
-      </c>
-      <c r="N93" s="3">
-        <v>0.93241739999999995</v>
-      </c>
-      <c r="O93" s="3">
-        <v>991.38390000000004</v>
-      </c>
-      <c r="P93" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>45119.560914351852</v>
-      </c>
-      <c r="B94" s="3">
-        <v>26.915559999999999</v>
-      </c>
-      <c r="C94" s="3">
-        <v>6.3825149999999997</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1.1301000000000001</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1.2974220000000001</v>
-      </c>
-      <c r="F94" s="3">
-        <v>5.1718480000000002E-4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0.99855700000000003</v>
-      </c>
-      <c r="H94" s="3">
-        <v>8.4332709999999998E-4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0.45533750000000001</v>
-      </c>
-      <c r="J94" s="3">
-        <v>18.223769999999998</v>
-      </c>
-      <c r="K94" s="3">
-        <v>12.25118</v>
-      </c>
-      <c r="L94" s="3">
-        <v>28.55274</v>
-      </c>
-      <c r="M94" s="3">
-        <v>8.6134369999999993</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0.93033520000000003</v>
-      </c>
-      <c r="O94" s="3">
-        <v>991.38160000000005</v>
-      </c>
-      <c r="P94" s="3">
-        <v>46.848495329999999</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-91.179104510000002</v>
-      </c>
-      <c r="R94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
